--- a/preregistration/varNames.xlsx
+++ b/preregistration/varNames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jannis/SynologyDrive/PhD/Phd Research [shared]/04 Migration Trajectories/migration-trajectories/preregistration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A534CB-34D0-AB48-9AF3-88A664B0EE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD59EC6-0685-024B-AC6E-71DB82AC5B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="2380" windowWidth="17900" windowHeight="20660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="varNames" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7442" uniqueCount="1291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7447" uniqueCount="1295">
   <si>
     <t>S1</t>
   </si>
@@ -3923,13 +3923,25 @@
   </si>
   <si>
     <t>list</t>
+  </si>
+  <si>
+    <t>roommate</t>
+  </si>
+  <si>
+    <t>everyone English</t>
+  </si>
+  <si>
+    <t>ordinal</t>
+  </si>
+  <si>
+    <t>count data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4075,6 +4087,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4418,11 +4437,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4805,9 +4825,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L411" sqref="L411"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A345" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S368" sqref="S368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6529,10 +6549,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>810</v>
+        <v>1291</v>
       </c>
       <c r="C45" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -6580,7 +6600,7 @@
         <v>30</v>
       </c>
       <c r="C46" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -6610,7 +6630,7 @@
         <v>31</v>
       </c>
       <c r="C47" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -6735,14 +6755,14 @@
       <c r="B50" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
+      <c r="C50" s="4">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>1284</v>
@@ -6832,7 +6852,7 @@
         <v>814</v>
       </c>
       <c r="C52" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -6880,7 +6900,7 @@
         <v>37</v>
       </c>
       <c r="C53" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -6910,7 +6930,7 @@
         <v>38</v>
       </c>
       <c r="C54" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -6940,7 +6960,7 @@
         <v>39</v>
       </c>
       <c r="C55" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -6970,7 +6990,7 @@
         <v>40</v>
       </c>
       <c r="C56" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -7000,7 +7020,7 @@
         <v>41</v>
       </c>
       <c r="C57" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
@@ -7030,7 +7050,7 @@
         <v>42</v>
       </c>
       <c r="C58" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -7060,7 +7080,7 @@
         <v>43</v>
       </c>
       <c r="C59" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -7393,7 +7413,7 @@
         <v>820</v>
       </c>
       <c r="C68" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
@@ -7441,7 +7461,7 @@
         <v>47</v>
       </c>
       <c r="C69" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
@@ -7471,7 +7491,7 @@
         <v>48</v>
       </c>
       <c r="C70" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
@@ -7501,7 +7521,7 @@
         <v>49</v>
       </c>
       <c r="C71" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
@@ -7531,7 +7551,7 @@
         <v>50</v>
       </c>
       <c r="C72" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
@@ -7561,7 +7581,7 @@
         <v>51</v>
       </c>
       <c r="C73" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -7591,7 +7611,7 @@
         <v>52</v>
       </c>
       <c r="C74" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
@@ -7621,7 +7641,7 @@
         <v>53</v>
       </c>
       <c r="C75" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
@@ -7681,7 +7701,7 @@
         <v>55</v>
       </c>
       <c r="C77" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
@@ -7711,7 +7731,7 @@
         <v>56</v>
       </c>
       <c r="C78" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -7741,7 +7761,7 @@
         <v>57</v>
       </c>
       <c r="C79" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -7771,7 +7791,7 @@
         <v>58</v>
       </c>
       <c r="C80" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
@@ -7792,7 +7812,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -7822,7 +7842,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -7831,13 +7851,13 @@
         <v>60</v>
       </c>
       <c r="C82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>1284</v>
@@ -7852,7 +7872,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -7861,13 +7881,13 @@
         <v>61</v>
       </c>
       <c r="C83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>1284</v>
@@ -7882,7 +7902,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -7891,13 +7911,13 @@
         <v>62</v>
       </c>
       <c r="C84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>1284</v>
@@ -7912,7 +7932,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -7921,13 +7941,13 @@
         <v>63</v>
       </c>
       <c r="C85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>1284</v>
@@ -7942,7 +7962,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -7951,13 +7971,13 @@
         <v>64</v>
       </c>
       <c r="C86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>1284</v>
@@ -7972,7 +7992,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -7981,13 +8001,13 @@
         <v>65</v>
       </c>
       <c r="C87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>1284</v>
@@ -8002,7 +8022,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -8032,7 +8052,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -8041,13 +8061,13 @@
         <v>67</v>
       </c>
       <c r="C89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>1284</v>
@@ -8062,7 +8082,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -8071,13 +8091,13 @@
         <v>68</v>
       </c>
       <c r="C90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>1284</v>
@@ -8091,8 +8111,11 @@
       <c r="I90" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="S90" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -8101,13 +8124,13 @@
         <v>69</v>
       </c>
       <c r="C91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>1284</v>
@@ -8121,8 +8144,11 @@
       <c r="I91" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="S91" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -8131,13 +8157,13 @@
         <v>70</v>
       </c>
       <c r="C92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>1284</v>
@@ -8151,8 +8177,11 @@
       <c r="I92" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="S92" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -8161,13 +8190,13 @@
         <v>71</v>
       </c>
       <c r="C93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
       </c>
       <c r="E93" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>1284</v>
@@ -8181,8 +8210,11 @@
       <c r="I93" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="S93" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -8191,7 +8223,7 @@
         <v>72</v>
       </c>
       <c r="C94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
@@ -8212,7 +8244,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -8221,7 +8253,7 @@
         <v>73</v>
       </c>
       <c r="C95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
@@ -8242,7 +8274,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -8251,7 +8283,7 @@
         <v>74</v>
       </c>
       <c r="C96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
@@ -8281,13 +8313,13 @@
         <v>81</v>
       </c>
       <c r="C97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>1284</v>
@@ -8329,13 +8361,13 @@
         <v>76</v>
       </c>
       <c r="C98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
       </c>
       <c r="E98" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>1284</v>
@@ -8359,13 +8391,13 @@
         <v>77</v>
       </c>
       <c r="C99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>1284</v>
@@ -8389,13 +8421,13 @@
         <v>78</v>
       </c>
       <c r="C100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>1284</v>
@@ -8419,13 +8451,13 @@
         <v>79</v>
       </c>
       <c r="C101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" s="1">
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>1284</v>
@@ -8449,13 +8481,13 @@
         <v>80</v>
       </c>
       <c r="C102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>1284</v>
@@ -8479,13 +8511,13 @@
         <v>1283</v>
       </c>
       <c r="C103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>1284</v>
@@ -8712,8 +8744,8 @@
       <c r="B109" t="s">
         <v>769</v>
       </c>
-      <c r="C109">
-        <v>1</v>
+      <c r="C109" s="1">
+        <v>-1</v>
       </c>
       <c r="D109" s="1">
         <v>0</v>
@@ -8751,8 +8783,8 @@
       <c r="B110" t="s">
         <v>770</v>
       </c>
-      <c r="C110">
-        <v>1</v>
+      <c r="C110" s="1">
+        <v>-1</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
@@ -8790,8 +8822,8 @@
       <c r="B111" t="s">
         <v>771</v>
       </c>
-      <c r="C111">
-        <v>1</v>
+      <c r="C111" s="1">
+        <v>-1</v>
       </c>
       <c r="D111" s="1">
         <v>0</v>
@@ -8829,8 +8861,8 @@
       <c r="B112" t="s">
         <v>772</v>
       </c>
-      <c r="C112">
-        <v>1</v>
+      <c r="C112" s="1">
+        <v>-1</v>
       </c>
       <c r="D112" s="1">
         <v>0</v>
@@ -8868,8 +8900,8 @@
       <c r="B113" t="s">
         <v>773</v>
       </c>
-      <c r="C113">
-        <v>1</v>
+      <c r="C113" s="1">
+        <v>-1</v>
       </c>
       <c r="D113" s="1">
         <v>0</v>
@@ -8907,8 +8939,8 @@
       <c r="B114" t="s">
         <v>774</v>
       </c>
-      <c r="C114">
-        <v>1</v>
+      <c r="C114" s="1">
+        <v>-1</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -8946,8 +8978,8 @@
       <c r="B115" t="s">
         <v>775</v>
       </c>
-      <c r="C115">
-        <v>1</v>
+      <c r="C115" s="1">
+        <v>-1</v>
       </c>
       <c r="D115" s="1">
         <v>0</v>
@@ -8985,8 +9017,8 @@
       <c r="B116" t="s">
         <v>776</v>
       </c>
-      <c r="C116">
-        <v>1</v>
+      <c r="C116" s="1">
+        <v>-1</v>
       </c>
       <c r="D116" s="1">
         <v>0</v>
@@ -9024,8 +9056,8 @@
       <c r="B117" t="s">
         <v>735</v>
       </c>
-      <c r="C117">
-        <v>1</v>
+      <c r="C117" s="1">
+        <v>-1</v>
       </c>
       <c r="D117" s="1">
         <v>0</v>
@@ -9063,8 +9095,8 @@
       <c r="B118" t="s">
         <v>767</v>
       </c>
-      <c r="C118">
-        <v>1</v>
+      <c r="C118" s="1">
+        <v>-1</v>
       </c>
       <c r="D118" s="1">
         <v>0</v>
@@ -9102,8 +9134,8 @@
       <c r="B119" t="s">
         <v>768</v>
       </c>
-      <c r="C119">
-        <v>1</v>
+      <c r="C119" s="1">
+        <v>-1</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
@@ -9357,8 +9389,8 @@
       <c r="B126" t="s">
         <v>1041</v>
       </c>
-      <c r="C126">
-        <v>1</v>
+      <c r="C126" s="1">
+        <v>-1</v>
       </c>
       <c r="D126" s="1">
         <v>0</v>
@@ -9387,8 +9419,8 @@
       <c r="B127" t="s">
         <v>1042</v>
       </c>
-      <c r="C127">
-        <v>1</v>
+      <c r="C127" s="1">
+        <v>-1</v>
       </c>
       <c r="D127" s="1">
         <v>0</v>
@@ -9417,8 +9449,8 @@
       <c r="B128" t="s">
         <v>1043</v>
       </c>
-      <c r="C128">
-        <v>1</v>
+      <c r="C128" s="1">
+        <v>-1</v>
       </c>
       <c r="D128" s="1">
         <v>0</v>
@@ -9447,8 +9479,8 @@
       <c r="B129" t="s">
         <v>1044</v>
       </c>
-      <c r="C129">
-        <v>1</v>
+      <c r="C129" s="1">
+        <v>-1</v>
       </c>
       <c r="D129" s="1">
         <v>0</v>
@@ -9477,8 +9509,8 @@
       <c r="B130" t="s">
         <v>1045</v>
       </c>
-      <c r="C130">
-        <v>1</v>
+      <c r="C130" s="1">
+        <v>-1</v>
       </c>
       <c r="D130" s="1">
         <v>0</v>
@@ -9507,8 +9539,8 @@
       <c r="B131" t="s">
         <v>1046</v>
       </c>
-      <c r="C131">
-        <v>1</v>
+      <c r="C131" s="1">
+        <v>-1</v>
       </c>
       <c r="D131" s="1">
         <v>0</v>
@@ -9537,8 +9569,8 @@
       <c r="B132" t="s">
         <v>1047</v>
       </c>
-      <c r="C132">
-        <v>1</v>
+      <c r="C132" s="1">
+        <v>-1</v>
       </c>
       <c r="D132" s="1">
         <v>0</v>
@@ -9567,8 +9599,8 @@
       <c r="B133" t="s">
         <v>1048</v>
       </c>
-      <c r="C133">
-        <v>1</v>
+      <c r="C133" s="1">
+        <v>-1</v>
       </c>
       <c r="D133" s="1">
         <v>0</v>
@@ -9597,8 +9629,8 @@
       <c r="B134" t="s">
         <v>1049</v>
       </c>
-      <c r="C134">
-        <v>1</v>
+      <c r="C134" s="1">
+        <v>-1</v>
       </c>
       <c r="D134" s="1">
         <v>0</v>
@@ -9627,8 +9659,8 @@
       <c r="B135" t="s">
         <v>1050</v>
       </c>
-      <c r="C135">
-        <v>1</v>
+      <c r="C135" s="1">
+        <v>-1</v>
       </c>
       <c r="D135" s="1">
         <v>0</v>
@@ -9657,8 +9689,8 @@
       <c r="B136" t="s">
         <v>1051</v>
       </c>
-      <c r="C136">
-        <v>1</v>
+      <c r="C136" s="1">
+        <v>-1</v>
       </c>
       <c r="D136" s="1">
         <v>0</v>
@@ -9687,8 +9719,8 @@
       <c r="B137" t="s">
         <v>1052</v>
       </c>
-      <c r="C137">
-        <v>1</v>
+      <c r="C137" s="1">
+        <v>-1</v>
       </c>
       <c r="D137" s="1">
         <v>0</v>
@@ -9717,8 +9749,8 @@
       <c r="B138" t="s">
         <v>1053</v>
       </c>
-      <c r="C138">
-        <v>1</v>
+      <c r="C138" s="1">
+        <v>-1</v>
       </c>
       <c r="D138" s="1">
         <v>0</v>
@@ -9747,8 +9779,8 @@
       <c r="B139" t="s">
         <v>1054</v>
       </c>
-      <c r="C139">
-        <v>1</v>
+      <c r="C139" s="1">
+        <v>-1</v>
       </c>
       <c r="D139" s="1">
         <v>0</v>
@@ -9777,8 +9809,8 @@
       <c r="B140" t="s">
         <v>1055</v>
       </c>
-      <c r="C140">
-        <v>1</v>
+      <c r="C140" s="1">
+        <v>-1</v>
       </c>
       <c r="D140" s="1">
         <v>0</v>
@@ -9807,8 +9839,8 @@
       <c r="B141" t="s">
         <v>1056</v>
       </c>
-      <c r="C141">
-        <v>1</v>
+      <c r="C141" s="1">
+        <v>-1</v>
       </c>
       <c r="D141" s="1">
         <v>0</v>
@@ -9837,8 +9869,8 @@
       <c r="B142" t="s">
         <v>1057</v>
       </c>
-      <c r="C142">
-        <v>1</v>
+      <c r="C142" s="1">
+        <v>-1</v>
       </c>
       <c r="D142" s="1">
         <v>0</v>
@@ -9867,8 +9899,8 @@
       <c r="B143" t="s">
         <v>1058</v>
       </c>
-      <c r="C143">
-        <v>1</v>
+      <c r="C143" s="1">
+        <v>-1</v>
       </c>
       <c r="D143" s="1">
         <v>0</v>
@@ -9897,8 +9929,8 @@
       <c r="B144" t="s">
         <v>1059</v>
       </c>
-      <c r="C144">
-        <v>1</v>
+      <c r="C144" s="1">
+        <v>-1</v>
       </c>
       <c r="D144" s="1">
         <v>0</v>
@@ -9927,8 +9959,8 @@
       <c r="B145" t="s">
         <v>1060</v>
       </c>
-      <c r="C145">
-        <v>1</v>
+      <c r="C145" s="1">
+        <v>-1</v>
       </c>
       <c r="D145" s="1">
         <v>0</v>
@@ -9957,8 +9989,8 @@
       <c r="B146" t="s">
         <v>1061</v>
       </c>
-      <c r="C146">
-        <v>1</v>
+      <c r="C146" s="1">
+        <v>-1</v>
       </c>
       <c r="D146" s="1">
         <v>0</v>
@@ -9987,8 +10019,8 @@
       <c r="B147" t="s">
         <v>1063</v>
       </c>
-      <c r="C147">
-        <v>1</v>
+      <c r="C147" s="1">
+        <v>-1</v>
       </c>
       <c r="D147" s="1">
         <v>0</v>
@@ -10017,8 +10049,8 @@
       <c r="B148" t="s">
         <v>1065</v>
       </c>
-      <c r="C148">
-        <v>1</v>
+      <c r="C148" s="1">
+        <v>-1</v>
       </c>
       <c r="D148" s="1">
         <v>0</v>
@@ -10047,8 +10079,8 @@
       <c r="B149" t="s">
         <v>1067</v>
       </c>
-      <c r="C149">
-        <v>1</v>
+      <c r="C149" s="1">
+        <v>-1</v>
       </c>
       <c r="D149" s="1">
         <v>0</v>
@@ -10077,8 +10109,8 @@
       <c r="B150" t="s">
         <v>1062</v>
       </c>
-      <c r="C150">
-        <v>1</v>
+      <c r="C150" s="1">
+        <v>-1</v>
       </c>
       <c r="D150" s="1">
         <v>0</v>
@@ -10107,8 +10139,8 @@
       <c r="B151" t="s">
         <v>1064</v>
       </c>
-      <c r="C151">
-        <v>1</v>
+      <c r="C151" s="1">
+        <v>-1</v>
       </c>
       <c r="D151" s="1">
         <v>0</v>
@@ -10137,8 +10169,8 @@
       <c r="B152" t="s">
         <v>1066</v>
       </c>
-      <c r="C152">
-        <v>1</v>
+      <c r="C152" s="1">
+        <v>-1</v>
       </c>
       <c r="D152" s="1">
         <v>0</v>
@@ -10167,8 +10199,8 @@
       <c r="B153" t="s">
         <v>1068</v>
       </c>
-      <c r="C153">
-        <v>1</v>
+      <c r="C153" s="1">
+        <v>-1</v>
       </c>
       <c r="D153" s="1">
         <v>0</v>
@@ -10197,8 +10229,8 @@
       <c r="B154" t="s">
         <v>1069</v>
       </c>
-      <c r="C154">
-        <v>1</v>
+      <c r="C154" s="1">
+        <v>-1</v>
       </c>
       <c r="D154" s="1">
         <v>0</v>
@@ -10227,8 +10259,8 @@
       <c r="B155" t="s">
         <v>1070</v>
       </c>
-      <c r="C155">
-        <v>1</v>
+      <c r="C155" s="1">
+        <v>-1</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -10257,8 +10289,8 @@
       <c r="B156" t="s">
         <v>1071</v>
       </c>
-      <c r="C156">
-        <v>1</v>
+      <c r="C156" s="1">
+        <v>-1</v>
       </c>
       <c r="D156" s="1">
         <v>0</v>
@@ -10287,8 +10319,8 @@
       <c r="B157" t="s">
         <v>1072</v>
       </c>
-      <c r="C157">
-        <v>1</v>
+      <c r="C157" s="1">
+        <v>-1</v>
       </c>
       <c r="D157" s="1">
         <v>0</v>
@@ -10317,8 +10349,8 @@
       <c r="B158" t="s">
         <v>1073</v>
       </c>
-      <c r="C158">
-        <v>1</v>
+      <c r="C158" s="1">
+        <v>-1</v>
       </c>
       <c r="D158" s="1">
         <v>0</v>
@@ -10347,8 +10379,8 @@
       <c r="B159" t="s">
         <v>1075</v>
       </c>
-      <c r="C159">
-        <v>1</v>
+      <c r="C159" s="1">
+        <v>-1</v>
       </c>
       <c r="D159" s="1">
         <v>0</v>
@@ -10377,8 +10409,8 @@
       <c r="B160" t="s">
         <v>1074</v>
       </c>
-      <c r="C160">
-        <v>1</v>
+      <c r="C160" s="1">
+        <v>-1</v>
       </c>
       <c r="D160" s="1">
         <v>0</v>
@@ -10407,8 +10439,8 @@
       <c r="B161" t="s">
         <v>1076</v>
       </c>
-      <c r="C161">
-        <v>1</v>
+      <c r="C161" s="1">
+        <v>-1</v>
       </c>
       <c r="D161" s="1">
         <v>0</v>
@@ -10437,8 +10469,8 @@
       <c r="B162" t="s">
         <v>1077</v>
       </c>
-      <c r="C162">
-        <v>1</v>
+      <c r="C162" s="1">
+        <v>-1</v>
       </c>
       <c r="D162" s="1">
         <v>0</v>
@@ -10467,8 +10499,8 @@
       <c r="B163" t="s">
         <v>1078</v>
       </c>
-      <c r="C163">
-        <v>1</v>
+      <c r="C163" s="1">
+        <v>-1</v>
       </c>
       <c r="D163" s="1">
         <v>0</v>
@@ -10497,8 +10529,8 @@
       <c r="B164" t="s">
         <v>1079</v>
       </c>
-      <c r="C164">
-        <v>1</v>
+      <c r="C164" s="1">
+        <v>-1</v>
       </c>
       <c r="D164" s="1">
         <v>0</v>
@@ -10527,8 +10559,8 @@
       <c r="B165" t="s">
         <v>1080</v>
       </c>
-      <c r="C165">
-        <v>1</v>
+      <c r="C165" s="1">
+        <v>-1</v>
       </c>
       <c r="D165" s="1">
         <v>0</v>
@@ -10557,8 +10589,8 @@
       <c r="B166" t="s">
         <v>1081</v>
       </c>
-      <c r="C166">
-        <v>1</v>
+      <c r="C166" s="1">
+        <v>-1</v>
       </c>
       <c r="D166" s="1">
         <v>0</v>
@@ -10587,8 +10619,8 @@
       <c r="B167" t="s">
         <v>1082</v>
       </c>
-      <c r="C167">
-        <v>1</v>
+      <c r="C167" s="1">
+        <v>-1</v>
       </c>
       <c r="D167" s="1">
         <v>0</v>
@@ -10617,8 +10649,8 @@
       <c r="B168" t="s">
         <v>1083</v>
       </c>
-      <c r="C168">
-        <v>1</v>
+      <c r="C168" s="1">
+        <v>-1</v>
       </c>
       <c r="D168" s="1">
         <v>0</v>
@@ -10647,8 +10679,8 @@
       <c r="B169" t="s">
         <v>1084</v>
       </c>
-      <c r="C169">
-        <v>1</v>
+      <c r="C169" s="1">
+        <v>-1</v>
       </c>
       <c r="D169" s="1">
         <v>0</v>
@@ -10677,8 +10709,8 @@
       <c r="B170" t="s">
         <v>1085</v>
       </c>
-      <c r="C170">
-        <v>1</v>
+      <c r="C170" s="1">
+        <v>-1</v>
       </c>
       <c r="D170" s="1">
         <v>0</v>
@@ -10707,8 +10739,8 @@
       <c r="B171" t="s">
         <v>1086</v>
       </c>
-      <c r="C171">
-        <v>1</v>
+      <c r="C171" s="1">
+        <v>-1</v>
       </c>
       <c r="D171" s="1">
         <v>0</v>
@@ -10767,14 +10799,14 @@
       <c r="B173" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C173">
-        <v>1</v>
+      <c r="C173" s="1">
+        <v>0</v>
       </c>
       <c r="D173" s="1">
         <v>0</v>
       </c>
       <c r="E173" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>1287</v>
@@ -10797,14 +10829,14 @@
       <c r="B174" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C174">
-        <v>1</v>
+      <c r="C174" s="1">
+        <v>0</v>
       </c>
       <c r="D174" s="1">
         <v>0</v>
       </c>
       <c r="E174" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>1287</v>
@@ -10827,14 +10859,14 @@
       <c r="B175" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C175">
-        <v>1</v>
+      <c r="C175" s="1">
+        <v>0</v>
       </c>
       <c r="D175" s="1">
         <v>0</v>
       </c>
       <c r="E175" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>1287</v>
@@ -10857,14 +10889,14 @@
       <c r="B176" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C176">
-        <v>1</v>
+      <c r="C176" s="1">
+        <v>0</v>
       </c>
       <c r="D176" s="1">
         <v>0</v>
       </c>
       <c r="E176" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>1287</v>
@@ -10887,14 +10919,14 @@
       <c r="B177" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C177">
-        <v>1</v>
+      <c r="C177" s="1">
+        <v>0</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
       </c>
       <c r="E177" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>1287</v>
@@ -10917,14 +10949,14 @@
       <c r="B178" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C178">
-        <v>1</v>
+      <c r="C178" s="1">
+        <v>0</v>
       </c>
       <c r="D178" s="1">
         <v>0</v>
       </c>
       <c r="E178" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>1287</v>
@@ -10947,14 +10979,14 @@
       <c r="B179" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C179">
-        <v>1</v>
+      <c r="C179" s="1">
+        <v>0</v>
       </c>
       <c r="D179" s="1">
         <v>0</v>
       </c>
       <c r="E179" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>1287</v>
@@ -10977,14 +11009,14 @@
       <c r="B180" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C180">
-        <v>1</v>
+      <c r="C180" s="1">
+        <v>0</v>
       </c>
       <c r="D180" s="1">
         <v>0</v>
       </c>
       <c r="E180" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>1287</v>
@@ -11008,13 +11040,13 @@
         <v>92</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181" s="1">
         <v>0</v>
       </c>
-      <c r="E181" s="1">
-        <v>0</v>
+      <c r="E181">
+        <v>1</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>1287</v>
@@ -11038,13 +11070,13 @@
         <v>93</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182" s="1">
         <v>0</v>
       </c>
-      <c r="E182" s="1">
-        <v>0</v>
+      <c r="E182">
+        <v>1</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>1287</v>
@@ -11068,13 +11100,13 @@
         <v>94</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183" s="1">
         <v>0</v>
       </c>
-      <c r="E183" s="1">
-        <v>0</v>
+      <c r="E183">
+        <v>1</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>1287</v>
@@ -11098,13 +11130,13 @@
         <v>95</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184" s="1">
         <v>0</v>
       </c>
-      <c r="E184" s="1">
-        <v>0</v>
+      <c r="E184">
+        <v>1</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>1287</v>
@@ -11127,14 +11159,14 @@
       <c r="B185" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C185">
-        <v>1</v>
+      <c r="C185" s="1">
+        <v>0</v>
       </c>
       <c r="D185" s="1">
         <v>0</v>
       </c>
       <c r="E185" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>1287</v>
@@ -11157,14 +11189,14 @@
       <c r="B186" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C186">
-        <v>1</v>
+      <c r="C186" s="1">
+        <v>0</v>
       </c>
       <c r="D186" s="1">
         <v>0</v>
       </c>
       <c r="E186" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>1287</v>
@@ -11187,14 +11219,14 @@
       <c r="B187" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C187">
-        <v>1</v>
+      <c r="C187" s="1">
+        <v>0</v>
       </c>
       <c r="D187" s="1">
         <v>0</v>
       </c>
       <c r="E187" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>1287</v>
@@ -11217,14 +11249,14 @@
       <c r="B188" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C188">
-        <v>1</v>
+      <c r="C188" s="1">
+        <v>0</v>
       </c>
       <c r="D188" s="1">
         <v>0</v>
       </c>
       <c r="E188" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>1287</v>
@@ -11247,14 +11279,14 @@
       <c r="B189" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C189">
-        <v>1</v>
+      <c r="C189" s="1">
+        <v>0</v>
       </c>
       <c r="D189" s="1">
         <v>0</v>
       </c>
       <c r="E189" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>1287</v>
@@ -11277,14 +11309,14 @@
       <c r="B190" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C190">
-        <v>1</v>
+      <c r="C190" s="1">
+        <v>0</v>
       </c>
       <c r="D190" s="1">
         <v>0</v>
       </c>
       <c r="E190" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>1287</v>
@@ -11307,14 +11339,14 @@
       <c r="B191" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C191">
-        <v>1</v>
+      <c r="C191" s="1">
+        <v>0</v>
       </c>
       <c r="D191" s="1">
         <v>0</v>
       </c>
       <c r="E191" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>1287</v>
@@ -11337,14 +11369,14 @@
       <c r="B192" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C192">
-        <v>1</v>
+      <c r="C192" s="1">
+        <v>0</v>
       </c>
       <c r="D192" s="1">
         <v>0</v>
       </c>
       <c r="E192" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>1287</v>
@@ -11367,14 +11399,14 @@
       <c r="B193" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C193">
-        <v>1</v>
+      <c r="C193" s="1">
+        <v>0</v>
       </c>
       <c r="D193" s="1">
         <v>0</v>
       </c>
       <c r="E193" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>1287</v>
@@ -11397,14 +11429,14 @@
       <c r="B194" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C194">
-        <v>1</v>
+      <c r="C194" s="1">
+        <v>0</v>
       </c>
       <c r="D194" s="1">
         <v>0</v>
       </c>
       <c r="E194" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>1287</v>
@@ -11427,14 +11459,14 @@
       <c r="B195" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C195">
-        <v>1</v>
+      <c r="C195" s="1">
+        <v>0</v>
       </c>
       <c r="D195" s="1">
         <v>0</v>
       </c>
       <c r="E195" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>1287</v>
@@ -11457,14 +11489,14 @@
       <c r="B196" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C196">
-        <v>1</v>
+      <c r="C196" s="1">
+        <v>0</v>
       </c>
       <c r="D196" s="1">
         <v>0</v>
       </c>
       <c r="E196" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>1287</v>
@@ -11487,14 +11519,14 @@
       <c r="B197" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C197">
-        <v>1</v>
+      <c r="C197" s="1">
+        <v>0</v>
       </c>
       <c r="D197" s="1">
         <v>0</v>
       </c>
       <c r="E197" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>1287</v>
@@ -11517,14 +11549,14 @@
       <c r="B198" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C198">
-        <v>1</v>
+      <c r="C198" s="1">
+        <v>0</v>
       </c>
       <c r="D198" s="1">
         <v>0</v>
       </c>
       <c r="E198" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>1287</v>
@@ -11547,14 +11579,14 @@
       <c r="B199" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C199">
-        <v>1</v>
+      <c r="C199" s="1">
+        <v>0</v>
       </c>
       <c r="D199" s="1">
         <v>0</v>
       </c>
       <c r="E199" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>1287</v>
@@ -11577,14 +11609,14 @@
       <c r="B200" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C200">
-        <v>1</v>
+      <c r="C200" s="1">
+        <v>0</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
       </c>
       <c r="E200" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>1287</v>
@@ -11607,14 +11639,14 @@
       <c r="B201" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C201">
-        <v>1</v>
+      <c r="C201" s="1">
+        <v>0</v>
       </c>
       <c r="D201" s="1">
         <v>0</v>
       </c>
       <c r="E201" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>1287</v>
@@ -11637,14 +11669,14 @@
       <c r="B202" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C202">
-        <v>1</v>
+      <c r="C202" s="1">
+        <v>0</v>
       </c>
       <c r="D202" s="1">
         <v>0</v>
       </c>
       <c r="E202" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>1287</v>
@@ -11667,14 +11699,14 @@
       <c r="B203" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C203">
-        <v>1</v>
+      <c r="C203" s="1">
+        <v>0</v>
       </c>
       <c r="D203" s="1">
         <v>0</v>
       </c>
       <c r="E203" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>1287</v>
@@ -11697,14 +11729,14 @@
       <c r="B204" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C204">
-        <v>1</v>
+      <c r="C204" s="1">
+        <v>0</v>
       </c>
       <c r="D204" s="1">
         <v>0</v>
       </c>
       <c r="E204" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>1287</v>
@@ -11728,13 +11760,13 @@
         <v>116</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D205" s="1">
         <v>0</v>
       </c>
       <c r="E205" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>1287</v>
@@ -11758,13 +11790,13 @@
         <v>117</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206" s="1">
         <v>0</v>
       </c>
       <c r="E206" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>1287</v>
@@ -11787,14 +11819,14 @@
       <c r="B207" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C207">
-        <v>1</v>
+      <c r="C207" s="1">
+        <v>0</v>
       </c>
       <c r="D207" s="1">
         <v>0</v>
       </c>
       <c r="E207" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>1287</v>
@@ -11817,14 +11849,14 @@
       <c r="B208" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C208">
-        <v>1</v>
+      <c r="C208" s="1">
+        <v>0</v>
       </c>
       <c r="D208" s="1">
         <v>0</v>
       </c>
       <c r="E208" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>1287</v>
@@ -11847,14 +11879,14 @@
       <c r="B209" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C209">
-        <v>1</v>
+      <c r="C209" s="1">
+        <v>0</v>
       </c>
       <c r="D209" s="1">
         <v>0</v>
       </c>
       <c r="E209" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>1287</v>
@@ -11877,14 +11909,14 @@
       <c r="B210" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C210">
-        <v>1</v>
+      <c r="C210" s="1">
+        <v>0</v>
       </c>
       <c r="D210" s="1">
         <v>0</v>
       </c>
       <c r="E210" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>1287</v>
@@ -11907,14 +11939,14 @@
       <c r="B211" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C211">
-        <v>1</v>
+      <c r="C211" s="1">
+        <v>0</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
       </c>
       <c r="E211" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>1287</v>
@@ -11937,14 +11969,14 @@
       <c r="B212" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C212">
-        <v>1</v>
+      <c r="C212" s="1">
+        <v>0</v>
       </c>
       <c r="D212" s="1">
         <v>0</v>
       </c>
       <c r="E212" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>1287</v>
@@ -11967,14 +11999,14 @@
       <c r="B213" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C213">
-        <v>1</v>
+      <c r="C213" s="1">
+        <v>0</v>
       </c>
       <c r="D213" s="1">
         <v>0</v>
       </c>
       <c r="E213" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>1287</v>
@@ -11997,14 +12029,14 @@
       <c r="B214" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C214">
-        <v>1</v>
+      <c r="C214" s="1">
+        <v>0</v>
       </c>
       <c r="D214" s="1">
         <v>0</v>
       </c>
       <c r="E214" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>1287</v>
@@ -12027,14 +12059,14 @@
       <c r="B215" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C215">
-        <v>1</v>
+      <c r="C215" s="1">
+        <v>0</v>
       </c>
       <c r="D215" s="1">
         <v>0</v>
       </c>
       <c r="E215" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>1287</v>
@@ -12058,13 +12090,13 @@
         <v>127</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D216" s="1">
         <v>0</v>
       </c>
-      <c r="E216" s="1">
-        <v>0</v>
+      <c r="E216">
+        <v>1</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>1287</v>
@@ -12088,13 +12120,13 @@
         <v>128</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217" s="1">
         <v>0</v>
       </c>
-      <c r="E217" s="1">
-        <v>0</v>
+      <c r="E217">
+        <v>1</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>1287</v>
@@ -12118,13 +12150,13 @@
         <v>129</v>
       </c>
       <c r="C218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D218" s="1">
         <v>0</v>
       </c>
-      <c r="E218" s="1">
-        <v>0</v>
+      <c r="E218">
+        <v>1</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>1287</v>
@@ -12147,8 +12179,8 @@
       <c r="B219" t="s">
         <v>779</v>
       </c>
-      <c r="C219">
-        <v>1</v>
+      <c r="C219" s="1">
+        <v>-1</v>
       </c>
       <c r="D219" s="1">
         <v>0</v>
@@ -12186,8 +12218,8 @@
       <c r="B220" t="s">
         <v>780</v>
       </c>
-      <c r="C220">
-        <v>1</v>
+      <c r="C220" s="1">
+        <v>-1</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -12225,8 +12257,8 @@
       <c r="B221" t="s">
         <v>781</v>
       </c>
-      <c r="C221">
-        <v>1</v>
+      <c r="C221" s="1">
+        <v>-1</v>
       </c>
       <c r="D221" s="1">
         <v>0</v>
@@ -12264,8 +12296,8 @@
       <c r="B222" t="s">
         <v>782</v>
       </c>
-      <c r="C222">
-        <v>1</v>
+      <c r="C222" s="1">
+        <v>-1</v>
       </c>
       <c r="D222" s="1">
         <v>0</v>
@@ -12304,13 +12336,13 @@
         <v>1223</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D223" s="1">
         <v>0</v>
       </c>
-      <c r="E223" s="1">
-        <v>-1</v>
+      <c r="E223">
+        <v>0</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>1287</v>
@@ -12334,13 +12366,13 @@
         <v>1224</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D224" s="1">
         <v>0</v>
       </c>
-      <c r="E224" s="1">
-        <v>-1</v>
+      <c r="E224">
+        <v>0</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>1287</v>
@@ -12364,13 +12396,13 @@
         <v>1225</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D225" s="1">
         <v>0</v>
       </c>
-      <c r="E225" s="1">
-        <v>-1</v>
+      <c r="E225">
+        <v>0</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>1287</v>
@@ -12394,13 +12426,13 @@
         <v>1226</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D226" s="1">
         <v>0</v>
       </c>
-      <c r="E226" s="1">
-        <v>-1</v>
+      <c r="E226">
+        <v>0</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>1287</v>
@@ -12423,8 +12455,8 @@
       <c r="B227" t="s">
         <v>783</v>
       </c>
-      <c r="C227">
-        <v>1</v>
+      <c r="C227" s="1">
+        <v>-1</v>
       </c>
       <c r="D227" s="1">
         <v>0</v>
@@ -12462,8 +12494,8 @@
       <c r="B228" t="s">
         <v>784</v>
       </c>
-      <c r="C228">
-        <v>1</v>
+      <c r="C228" s="1">
+        <v>-1</v>
       </c>
       <c r="D228" s="1">
         <v>0</v>
@@ -12501,8 +12533,8 @@
       <c r="B229" t="s">
         <v>799</v>
       </c>
-      <c r="C229">
-        <v>1</v>
+      <c r="C229" s="1">
+        <v>-1</v>
       </c>
       <c r="D229" s="1">
         <v>0</v>
@@ -12540,8 +12572,8 @@
       <c r="B230" t="s">
         <v>800</v>
       </c>
-      <c r="C230">
-        <v>1</v>
+      <c r="C230" s="1">
+        <v>-1</v>
       </c>
       <c r="D230" s="1">
         <v>0</v>
@@ -12579,8 +12611,8 @@
       <c r="B231" t="s">
         <v>801</v>
       </c>
-      <c r="C231">
-        <v>1</v>
+      <c r="C231" s="1">
+        <v>-1</v>
       </c>
       <c r="D231" s="1">
         <v>0</v>
@@ -12618,8 +12650,8 @@
       <c r="B232" t="s">
         <v>802</v>
       </c>
-      <c r="C232">
-        <v>1</v>
+      <c r="C232" s="1">
+        <v>-1</v>
       </c>
       <c r="D232" s="1">
         <v>0</v>
@@ -12657,8 +12689,8 @@
       <c r="B233" t="s">
         <v>803</v>
       </c>
-      <c r="C233">
-        <v>1</v>
+      <c r="C233" s="1">
+        <v>-1</v>
       </c>
       <c r="D233" s="1">
         <v>0</v>
@@ -12696,8 +12728,8 @@
       <c r="B234" t="s">
         <v>804</v>
       </c>
-      <c r="C234">
-        <v>1</v>
+      <c r="C234" s="1">
+        <v>-1</v>
       </c>
       <c r="D234" s="1">
         <v>0</v>
@@ -12736,13 +12768,13 @@
         <v>1227</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D235" s="1">
         <v>0</v>
       </c>
-      <c r="E235" s="1">
-        <v>-1</v>
+      <c r="E235">
+        <v>0</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>1287</v>
@@ -12766,13 +12798,13 @@
         <v>1228</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236" s="1">
         <v>0</v>
       </c>
-      <c r="E236" s="1">
-        <v>-1</v>
+      <c r="E236">
+        <v>0</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>1287</v>
@@ -12796,13 +12828,13 @@
         <v>1229</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D237" s="1">
         <v>0</v>
       </c>
-      <c r="E237" s="1">
-        <v>-1</v>
+      <c r="E237">
+        <v>0</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>1287</v>
@@ -12826,13 +12858,13 @@
         <v>1230</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D238" s="1">
         <v>0</v>
       </c>
-      <c r="E238" s="1">
-        <v>-1</v>
+      <c r="E238">
+        <v>0</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>1287</v>
@@ -12855,8 +12887,8 @@
       <c r="B239" t="s">
         <v>786</v>
       </c>
-      <c r="C239">
-        <v>1</v>
+      <c r="C239" s="1">
+        <v>-1</v>
       </c>
       <c r="D239" s="1">
         <v>0</v>
@@ -12894,8 +12926,8 @@
       <c r="B240" t="s">
         <v>787</v>
       </c>
-      <c r="C240">
-        <v>1</v>
+      <c r="C240" s="1">
+        <v>-1</v>
       </c>
       <c r="D240" s="1">
         <v>0</v>
@@ -12933,8 +12965,8 @@
       <c r="B241" t="s">
         <v>788</v>
       </c>
-      <c r="C241">
-        <v>1</v>
+      <c r="C241" s="1">
+        <v>-1</v>
       </c>
       <c r="D241" s="1">
         <v>0</v>
@@ -12972,8 +13004,8 @@
       <c r="B242" t="s">
         <v>789</v>
       </c>
-      <c r="C242">
-        <v>1</v>
+      <c r="C242" s="1">
+        <v>-1</v>
       </c>
       <c r="D242" s="1">
         <v>0</v>
@@ -13011,8 +13043,8 @@
       <c r="B243" t="s">
         <v>790</v>
       </c>
-      <c r="C243">
-        <v>1</v>
+      <c r="C243" s="1">
+        <v>-1</v>
       </c>
       <c r="D243" s="1">
         <v>0</v>
@@ -13050,8 +13082,8 @@
       <c r="B244" t="s">
         <v>791</v>
       </c>
-      <c r="C244">
-        <v>1</v>
+      <c r="C244" s="1">
+        <v>-1</v>
       </c>
       <c r="D244" s="1">
         <v>0</v>
@@ -13089,8 +13121,8 @@
       <c r="B245" t="s">
         <v>793</v>
       </c>
-      <c r="C245">
-        <v>1</v>
+      <c r="C245" s="1">
+        <v>-1</v>
       </c>
       <c r="D245" s="1">
         <v>0</v>
@@ -13128,8 +13160,8 @@
       <c r="B246" t="s">
         <v>794</v>
       </c>
-      <c r="C246">
-        <v>1</v>
+      <c r="C246" s="1">
+        <v>-1</v>
       </c>
       <c r="D246" s="1">
         <v>0</v>
@@ -13168,13 +13200,13 @@
         <v>1231</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D247" s="1">
         <v>0</v>
       </c>
-      <c r="E247" s="1">
-        <v>-1</v>
+      <c r="E247">
+        <v>0</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>1287</v>
@@ -13198,13 +13230,13 @@
         <v>1232</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D248" s="1">
         <v>0</v>
       </c>
-      <c r="E248" s="1">
-        <v>-1</v>
+      <c r="E248">
+        <v>0</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>1287</v>
@@ -13228,13 +13260,13 @@
         <v>1233</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D249" s="1">
         <v>0</v>
       </c>
-      <c r="E249" s="1">
-        <v>-1</v>
+      <c r="E249">
+        <v>0</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>1287</v>
@@ -13258,13 +13290,13 @@
         <v>1234</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D250" s="1">
         <v>0</v>
       </c>
-      <c r="E250" s="1">
-        <v>-1</v>
+      <c r="E250">
+        <v>0</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>1287</v>
@@ -13287,8 +13319,8 @@
       <c r="B251" t="s">
         <v>795</v>
       </c>
-      <c r="C251">
-        <v>1</v>
+      <c r="C251" s="1">
+        <v>-1</v>
       </c>
       <c r="D251" s="1">
         <v>0</v>
@@ -13326,8 +13358,8 @@
       <c r="B252" t="s">
         <v>796</v>
       </c>
-      <c r="C252">
-        <v>1</v>
+      <c r="C252" s="1">
+        <v>-1</v>
       </c>
       <c r="D252" s="1">
         <v>0</v>
@@ -13365,8 +13397,8 @@
       <c r="B253" t="s">
         <v>797</v>
       </c>
-      <c r="C253">
-        <v>1</v>
+      <c r="C253" s="1">
+        <v>-1</v>
       </c>
       <c r="D253" s="1">
         <v>0</v>
@@ -13404,8 +13436,8 @@
       <c r="B254" t="s">
         <v>798</v>
       </c>
-      <c r="C254">
-        <v>1</v>
+      <c r="C254" s="1">
+        <v>-1</v>
       </c>
       <c r="D254" s="1">
         <v>0</v>
@@ -13533,8 +13565,8 @@
       <c r="B258" t="s">
         <v>736</v>
       </c>
-      <c r="C258">
-        <v>1</v>
+      <c r="C258" s="1">
+        <v>-1</v>
       </c>
       <c r="D258" s="1">
         <v>0</v>
@@ -13581,8 +13613,8 @@
       <c r="B259" t="s">
         <v>737</v>
       </c>
-      <c r="C259">
-        <v>1</v>
+      <c r="C259" s="1">
+        <v>-1</v>
       </c>
       <c r="D259" s="1">
         <v>0</v>
@@ -13629,8 +13661,8 @@
       <c r="B260" t="s">
         <v>738</v>
       </c>
-      <c r="C260">
-        <v>1</v>
+      <c r="C260" s="1">
+        <v>-1</v>
       </c>
       <c r="D260" s="1">
         <v>0</v>
@@ -13677,8 +13709,8 @@
       <c r="B261" t="s">
         <v>739</v>
       </c>
-      <c r="C261">
-        <v>1</v>
+      <c r="C261" s="1">
+        <v>-1</v>
       </c>
       <c r="D261" s="1">
         <v>0</v>
@@ -13725,8 +13757,8 @@
       <c r="B262" t="s">
         <v>740</v>
       </c>
-      <c r="C262">
-        <v>1</v>
+      <c r="C262" s="1">
+        <v>-1</v>
       </c>
       <c r="D262" s="1">
         <v>0</v>
@@ -13773,8 +13805,8 @@
       <c r="B263" t="s">
         <v>741</v>
       </c>
-      <c r="C263">
-        <v>1</v>
+      <c r="C263" s="1">
+        <v>-1</v>
       </c>
       <c r="D263" s="1">
         <v>0</v>
@@ -13821,8 +13853,8 @@
       <c r="B264" t="s">
         <v>742</v>
       </c>
-      <c r="C264">
-        <v>1</v>
+      <c r="C264" s="1">
+        <v>-1</v>
       </c>
       <c r="D264" s="1">
         <v>0</v>
@@ -13869,8 +13901,8 @@
       <c r="B265" t="s">
         <v>743</v>
       </c>
-      <c r="C265">
-        <v>1</v>
+      <c r="C265" s="1">
+        <v>-1</v>
       </c>
       <c r="D265" s="1">
         <v>0</v>
@@ -13917,8 +13949,8 @@
       <c r="B266" t="s">
         <v>744</v>
       </c>
-      <c r="C266">
-        <v>1</v>
+      <c r="C266" s="1">
+        <v>-1</v>
       </c>
       <c r="D266" s="1">
         <v>0</v>
@@ -13965,8 +13997,8 @@
       <c r="B267" t="s">
         <v>745</v>
       </c>
-      <c r="C267">
-        <v>1</v>
+      <c r="C267" s="1">
+        <v>-1</v>
       </c>
       <c r="D267" s="1">
         <v>0</v>
@@ -14013,8 +14045,8 @@
       <c r="B268" t="s">
         <v>746</v>
       </c>
-      <c r="C268">
-        <v>1</v>
+      <c r="C268" s="1">
+        <v>-1</v>
       </c>
       <c r="D268" s="1">
         <v>0</v>
@@ -14061,8 +14093,8 @@
       <c r="B269" t="s">
         <v>747</v>
       </c>
-      <c r="C269">
-        <v>1</v>
+      <c r="C269" s="1">
+        <v>-1</v>
       </c>
       <c r="D269" s="1">
         <v>0</v>
@@ -14115,8 +14147,8 @@
       <c r="D270" s="1">
         <v>0</v>
       </c>
-      <c r="E270" s="1">
-        <v>-1</v>
+      <c r="E270">
+        <v>0</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>1287</v>
@@ -14145,8 +14177,8 @@
       <c r="D271" s="1">
         <v>0</v>
       </c>
-      <c r="E271" s="1">
-        <v>-1</v>
+      <c r="E271">
+        <v>0</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>1287</v>
@@ -14175,8 +14207,8 @@
       <c r="D272" s="1">
         <v>0</v>
       </c>
-      <c r="E272" s="1">
-        <v>-1</v>
+      <c r="E272">
+        <v>0</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>1287</v>
@@ -14205,8 +14237,8 @@
       <c r="D273" s="1">
         <v>0</v>
       </c>
-      <c r="E273" s="1">
-        <v>-1</v>
+      <c r="E273">
+        <v>0</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>1287</v>
@@ -14235,8 +14267,8 @@
       <c r="D274" s="1">
         <v>0</v>
       </c>
-      <c r="E274" s="1">
-        <v>-1</v>
+      <c r="E274">
+        <v>0</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>1287</v>
@@ -14265,8 +14297,8 @@
       <c r="D275" s="1">
         <v>0</v>
       </c>
-      <c r="E275" s="1">
-        <v>-1</v>
+      <c r="E275">
+        <v>0</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>1287</v>
@@ -14319,8 +14351,8 @@
       <c r="B277" t="s">
         <v>748</v>
       </c>
-      <c r="C277">
-        <v>1</v>
+      <c r="C277" s="1">
+        <v>-1</v>
       </c>
       <c r="D277" s="1">
         <v>0</v>
@@ -14367,8 +14399,8 @@
       <c r="B278" t="s">
         <v>749</v>
       </c>
-      <c r="C278">
-        <v>1</v>
+      <c r="C278" s="1">
+        <v>-1</v>
       </c>
       <c r="D278" s="1">
         <v>0</v>
@@ -14415,8 +14447,8 @@
       <c r="B279" t="s">
         <v>750</v>
       </c>
-      <c r="C279">
-        <v>1</v>
+      <c r="C279" s="1">
+        <v>-1</v>
       </c>
       <c r="D279" s="1">
         <v>0</v>
@@ -14463,8 +14495,8 @@
       <c r="B280" t="s">
         <v>751</v>
       </c>
-      <c r="C280">
-        <v>1</v>
+      <c r="C280" s="1">
+        <v>-1</v>
       </c>
       <c r="D280" s="1">
         <v>0</v>
@@ -14511,8 +14543,8 @@
       <c r="B281" t="s">
         <v>752</v>
       </c>
-      <c r="C281">
-        <v>1</v>
+      <c r="C281" s="1">
+        <v>-1</v>
       </c>
       <c r="D281" s="1">
         <v>0</v>
@@ -14710,7 +14742,7 @@
         <v>754</v>
       </c>
       <c r="C287" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D287" s="1">
         <v>0</v>
@@ -14749,7 +14781,7 @@
         <v>755</v>
       </c>
       <c r="C288" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D288" s="1">
         <v>0</v>
@@ -14788,7 +14820,7 @@
         <v>756</v>
       </c>
       <c r="C289" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D289" s="1">
         <v>0</v>
@@ -14857,7 +14889,7 @@
         <v>757</v>
       </c>
       <c r="C291" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D291" s="1">
         <v>0</v>
@@ -14926,7 +14958,7 @@
         <v>758</v>
       </c>
       <c r="C293" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D293" s="1">
         <v>0</v>
@@ -14995,7 +15027,7 @@
         <v>759</v>
       </c>
       <c r="C295" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D295" s="1">
         <v>0</v>
@@ -15034,7 +15066,7 @@
         <v>760</v>
       </c>
       <c r="C296" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D296" s="1">
         <v>0</v>
@@ -15103,7 +15135,7 @@
         <v>761</v>
       </c>
       <c r="C298" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D298" s="1">
         <v>0</v>
@@ -15142,7 +15174,7 @@
         <v>762</v>
       </c>
       <c r="C299" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D299" s="1">
         <v>0</v>
@@ -15211,7 +15243,7 @@
         <v>763</v>
       </c>
       <c r="C301" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -15250,7 +15282,7 @@
         <v>764</v>
       </c>
       <c r="C302" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D302" s="1">
         <v>0</v>
@@ -15319,7 +15351,7 @@
         <v>765</v>
       </c>
       <c r="C304" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D304" s="1">
         <v>0</v>
@@ -15358,7 +15390,7 @@
         <v>766</v>
       </c>
       <c r="C305" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D305" s="1">
         <v>0</v>
@@ -17059,7 +17091,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A353">
         <f t="shared" si="5"/>
         <v>352</v>
@@ -17098,7 +17130,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A354">
         <f t="shared" si="5"/>
         <v>353</v>
@@ -17128,7 +17160,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A355">
         <f t="shared" si="5"/>
         <v>354</v>
@@ -17158,7 +17190,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A356">
         <f t="shared" si="5"/>
         <v>355</v>
@@ -17188,7 +17220,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A357">
         <f t="shared" si="5"/>
         <v>356</v>
@@ -17218,7 +17250,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A358">
         <f t="shared" si="5"/>
         <v>357</v>
@@ -17266,7 +17298,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A359">
         <f t="shared" si="5"/>
         <v>358</v>
@@ -17281,7 +17313,7 @@
         <v>0</v>
       </c>
       <c r="E359" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F359" s="1" t="s">
         <v>224</v>
@@ -17296,7 +17328,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A360">
         <f t="shared" si="5"/>
         <v>359</v>
@@ -17305,7 +17337,7 @@
         <v>854</v>
       </c>
       <c r="C360" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D360" s="1">
         <v>0</v>
@@ -17335,7 +17367,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A361">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -17344,7 +17376,7 @@
         <v>855</v>
       </c>
       <c r="C361" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D361" s="1">
         <v>0</v>
@@ -17374,7 +17406,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A362">
         <f t="shared" si="5"/>
         <v>361</v>
@@ -17422,7 +17454,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A363">
         <f t="shared" si="5"/>
         <v>362</v>
@@ -17470,7 +17502,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A364">
         <f t="shared" si="5"/>
         <v>363</v>
@@ -17500,7 +17532,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A365">
         <f t="shared" si="5"/>
         <v>364</v>
@@ -17530,7 +17562,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A366">
         <f t="shared" si="5"/>
         <v>365</v>
@@ -17560,7 +17592,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A367">
         <f t="shared" si="5"/>
         <v>366</v>
@@ -17590,7 +17622,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A368">
         <f t="shared" si="5"/>
         <v>367</v>
@@ -17599,16 +17631,16 @@
         <v>858</v>
       </c>
       <c r="C368" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D368" s="1">
         <v>0</v>
       </c>
       <c r="E368" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>1287</v>
+        <v>1293</v>
       </c>
       <c r="G368" t="s">
         <v>0</v>
@@ -17636,6 +17668,9 @@
       </c>
       <c r="O368" t="s">
         <v>858</v>
+      </c>
+      <c r="S368" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.2">
@@ -17647,7 +17682,7 @@
         <v>250</v>
       </c>
       <c r="C369" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D369" s="1">
         <v>0</v>
@@ -17677,7 +17712,7 @@
         <v>251</v>
       </c>
       <c r="C370" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D370" s="1">
         <v>0</v>
@@ -17707,7 +17742,7 @@
         <v>252</v>
       </c>
       <c r="C371" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D371" s="1">
         <v>0</v>
@@ -17737,7 +17772,7 @@
         <v>253</v>
       </c>
       <c r="C372" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D372" s="1">
         <v>0</v>
@@ -17767,7 +17802,7 @@
         <v>254</v>
       </c>
       <c r="C373" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D373" s="1">
         <v>0</v>
@@ -17797,7 +17832,7 @@
         <v>255</v>
       </c>
       <c r="C374" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D374" s="1">
         <v>0</v>
@@ -17827,7 +17862,7 @@
         <v>256</v>
       </c>
       <c r="C375" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D375" s="1">
         <v>0</v>
@@ -17857,7 +17892,7 @@
         <v>257</v>
       </c>
       <c r="C376" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D376" s="1">
         <v>0</v>
@@ -17887,7 +17922,7 @@
         <v>258</v>
       </c>
       <c r="C377" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D377" s="1">
         <v>0</v>
@@ -17917,7 +17952,7 @@
         <v>259</v>
       </c>
       <c r="C378" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D378" s="1">
         <v>0</v>
@@ -17947,7 +17982,7 @@
         <v>260</v>
       </c>
       <c r="C379" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D379" s="1">
         <v>0</v>
@@ -17977,7 +18012,7 @@
         <v>261</v>
       </c>
       <c r="C380" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D380" s="1">
         <v>0</v>
@@ -18007,7 +18042,7 @@
         <v>262</v>
       </c>
       <c r="C381" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D381" s="1">
         <v>0</v>
@@ -18037,7 +18072,7 @@
         <v>263</v>
       </c>
       <c r="C382" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D382" s="1">
         <v>0</v>
@@ -18067,7 +18102,7 @@
         <v>264</v>
       </c>
       <c r="C383" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D383" s="1">
         <v>0</v>
@@ -18097,7 +18132,7 @@
         <v>265</v>
       </c>
       <c r="C384" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D384" s="1">
         <v>0</v>
@@ -18445,7 +18480,7 @@
         <v>271</v>
       </c>
       <c r="C395" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D395" s="1">
         <v>0</v>
@@ -18475,7 +18510,7 @@
         <v>272</v>
       </c>
       <c r="C396" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D396" s="1">
         <v>0</v>
@@ -18505,7 +18540,7 @@
         <v>273</v>
       </c>
       <c r="C397" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D397" s="1">
         <v>0</v>
@@ -18535,7 +18570,7 @@
         <v>274</v>
       </c>
       <c r="C398" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D398" s="1">
         <v>0</v>
@@ -18565,7 +18600,7 @@
         <v>275</v>
       </c>
       <c r="C399" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D399" s="1">
         <v>0</v>
@@ -18595,7 +18630,7 @@
         <v>276</v>
       </c>
       <c r="C400" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D400" s="1">
         <v>0</v>
@@ -18625,7 +18660,7 @@
         <v>277</v>
       </c>
       <c r="C401" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D401" s="1">
         <v>0</v>
@@ -18655,7 +18690,7 @@
         <v>278</v>
       </c>
       <c r="C402" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D402" s="1">
         <v>0</v>
@@ -18685,7 +18720,7 @@
         <v>279</v>
       </c>
       <c r="C403" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D403" s="1">
         <v>0</v>
@@ -18715,7 +18750,7 @@
         <v>280</v>
       </c>
       <c r="C404" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D404" s="1">
         <v>0</v>
@@ -18745,7 +18780,7 @@
         <v>281</v>
       </c>
       <c r="C405" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D405" s="1">
         <v>0</v>
@@ -18775,7 +18810,7 @@
         <v>282</v>
       </c>
       <c r="C406" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D406" s="1">
         <v>0</v>
@@ -18985,7 +19020,7 @@
         <v>294</v>
       </c>
       <c r="C413" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D413" s="1">
         <v>0</v>
@@ -19015,7 +19050,7 @@
         <v>295</v>
       </c>
       <c r="C414" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D414" s="1">
         <v>0</v>
@@ -19045,7 +19080,7 @@
         <v>296</v>
       </c>
       <c r="C415" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D415" s="1">
         <v>0</v>
@@ -19075,7 +19110,7 @@
         <v>297</v>
       </c>
       <c r="C416" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D416" s="1">
         <v>0</v>
@@ -19105,7 +19140,7 @@
         <v>298</v>
       </c>
       <c r="C417" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D417" s="1">
         <v>0</v>
@@ -19135,7 +19170,7 @@
         <v>299</v>
       </c>
       <c r="C418" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D418" s="1">
         <v>0</v>
@@ -19165,7 +19200,7 @@
         <v>300</v>
       </c>
       <c r="C419" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D419" s="1">
         <v>0</v>
@@ -19195,7 +19230,7 @@
         <v>301</v>
       </c>
       <c r="C420" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D420" s="1">
         <v>0</v>
@@ -19225,7 +19260,7 @@
         <v>302</v>
       </c>
       <c r="C421" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D421" s="1">
         <v>0</v>
@@ -19255,7 +19290,7 @@
         <v>303</v>
       </c>
       <c r="C422" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D422" s="1">
         <v>0</v>
@@ -19285,7 +19320,7 @@
         <v>304</v>
       </c>
       <c r="C423" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D423" s="1">
         <v>0</v>
@@ -19315,7 +19350,7 @@
         <v>305</v>
       </c>
       <c r="C424" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D424" s="1">
         <v>0</v>
@@ -19345,7 +19380,7 @@
         <v>306</v>
       </c>
       <c r="C425" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D425" s="1">
         <v>0</v>
@@ -19375,7 +19410,7 @@
         <v>307</v>
       </c>
       <c r="C426" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D426" s="1">
         <v>0</v>
@@ -19405,7 +19440,7 @@
         <v>308</v>
       </c>
       <c r="C427" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D427" s="1">
         <v>0</v>
@@ -19435,7 +19470,7 @@
         <v>309</v>
       </c>
       <c r="C428" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D428" s="1">
         <v>0</v>
@@ -19615,7 +19650,7 @@
         <v>315</v>
       </c>
       <c r="C434" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D434" s="1">
         <v>0</v>
@@ -19645,7 +19680,7 @@
         <v>316</v>
       </c>
       <c r="C435" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D435" s="1">
         <v>0</v>
@@ -19675,7 +19710,7 @@
         <v>317</v>
       </c>
       <c r="C436" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D436" s="1">
         <v>0</v>
@@ -19705,7 +19740,7 @@
         <v>318</v>
       </c>
       <c r="C437" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D437" s="1">
         <v>0</v>
@@ -19735,7 +19770,7 @@
         <v>319</v>
       </c>
       <c r="C438" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D438" s="1">
         <v>0</v>
@@ -19765,7 +19800,7 @@
         <v>320</v>
       </c>
       <c r="C439" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D439" s="1">
         <v>0</v>
@@ -19795,7 +19830,7 @@
         <v>321</v>
       </c>
       <c r="C440" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D440" s="1">
         <v>0</v>
@@ -19825,7 +19860,7 @@
         <v>322</v>
       </c>
       <c r="C441" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D441" s="1">
         <v>0</v>
@@ -19855,7 +19890,7 @@
         <v>323</v>
       </c>
       <c r="C442" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D442" s="1">
         <v>0</v>
@@ -19885,7 +19920,7 @@
         <v>324</v>
       </c>
       <c r="C443" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D443" s="1">
         <v>0</v>
@@ -19915,7 +19950,7 @@
         <v>325</v>
       </c>
       <c r="C444" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D444" s="1">
         <v>0</v>
@@ -19945,7 +19980,7 @@
         <v>326</v>
       </c>
       <c r="C445" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D445" s="1">
         <v>0</v>
@@ -21223,7 +21258,7 @@
         <v>1275</v>
       </c>
       <c r="C481" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D481" s="1">
         <v>-1</v>
@@ -21292,7 +21327,7 @@
         <v>1276</v>
       </c>
       <c r="C483" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D483" s="1">
         <v>-1</v>
@@ -21361,7 +21396,7 @@
         <v>1248</v>
       </c>
       <c r="C485" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D485" s="1">
         <v>-1</v>
@@ -21409,7 +21444,7 @@
         <v>1249</v>
       </c>
       <c r="C486" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D486" s="1">
         <v>-1</v>
@@ -22282,7 +22317,7 @@
         <v>880</v>
       </c>
       <c r="C510" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D510" s="1">
         <v>-1</v>
@@ -22321,7 +22356,7 @@
         <v>881</v>
       </c>
       <c r="C511" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D511" s="1">
         <v>-1</v>
@@ -22360,7 +22395,7 @@
         <v>882</v>
       </c>
       <c r="C512" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D512" s="1">
         <v>-1</v>
@@ -22399,7 +22434,7 @@
         <v>883</v>
       </c>
       <c r="C513" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D513" s="1">
         <v>-1</v>
@@ -22438,7 +22473,7 @@
         <v>884</v>
       </c>
       <c r="C514" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D514" s="1">
         <v>-1</v>
@@ -22477,7 +22512,7 @@
         <v>885</v>
       </c>
       <c r="C515" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D515" s="1">
         <v>-1</v>
@@ -22516,7 +22551,7 @@
         <v>886</v>
       </c>
       <c r="C516" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D516" s="1">
         <v>-1</v>
@@ -23221,7 +23256,7 @@
         <v>1118</v>
       </c>
       <c r="C535" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D535" s="1">
         <v>-1</v>
@@ -23251,7 +23286,7 @@
         <v>1119</v>
       </c>
       <c r="C536" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D536" s="1">
         <v>-1</v>
@@ -23281,7 +23316,7 @@
         <v>1120</v>
       </c>
       <c r="C537" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D537" s="1">
         <v>-1</v>
@@ -23341,7 +23376,7 @@
         <v>1121</v>
       </c>
       <c r="C539" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D539" s="1">
         <v>-1</v>
@@ -23371,7 +23406,7 @@
         <v>1122</v>
       </c>
       <c r="C540" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D540" s="1">
         <v>-1</v>
@@ -23401,7 +23436,7 @@
         <v>1123</v>
       </c>
       <c r="C541" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D541" s="1">
         <v>-1</v>
@@ -23431,7 +23466,7 @@
         <v>1124</v>
       </c>
       <c r="C542" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D542" s="1">
         <v>-1</v>
@@ -23491,7 +23526,7 @@
         <v>1094</v>
       </c>
       <c r="C544" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D544" s="1">
         <v>-1</v>
@@ -23521,7 +23556,7 @@
         <v>1095</v>
       </c>
       <c r="C545" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D545" s="1">
         <v>-1</v>
@@ -23551,7 +23586,7 @@
         <v>1096</v>
       </c>
       <c r="C546" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D546" s="1">
         <v>-1</v>
@@ -23581,7 +23616,7 @@
         <v>1097</v>
       </c>
       <c r="C547" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D547" s="1">
         <v>-1</v>
@@ -23641,7 +23676,7 @@
         <v>1098</v>
       </c>
       <c r="C549" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D549" s="1">
         <v>-1</v>
@@ -23671,7 +23706,7 @@
         <v>1099</v>
       </c>
       <c r="C550" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D550" s="1">
         <v>-1</v>
@@ -23701,7 +23736,7 @@
         <v>1100</v>
       </c>
       <c r="C551" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D551" s="1">
         <v>-1</v>
@@ -23731,7 +23766,7 @@
         <v>1101</v>
       </c>
       <c r="C552" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D552" s="1">
         <v>-1</v>
@@ -23791,7 +23826,7 @@
         <v>1102</v>
       </c>
       <c r="C554" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D554" s="1">
         <v>-1</v>
@@ -23821,7 +23856,7 @@
         <v>1103</v>
       </c>
       <c r="C555" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D555" s="1">
         <v>-1</v>
@@ -23851,7 +23886,7 @@
         <v>1104</v>
       </c>
       <c r="C556" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D556" s="1">
         <v>-1</v>
@@ -23881,7 +23916,7 @@
         <v>1105</v>
       </c>
       <c r="C557" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D557" s="1">
         <v>-1</v>
@@ -23941,7 +23976,7 @@
         <v>1106</v>
       </c>
       <c r="C559" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D559" s="1">
         <v>-1</v>
@@ -23971,7 +24006,7 @@
         <v>1107</v>
       </c>
       <c r="C560" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D560" s="1">
         <v>-1</v>
@@ -24001,7 +24036,7 @@
         <v>1108</v>
       </c>
       <c r="C561" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D561" s="1">
         <v>-1</v>
@@ -24031,7 +24066,7 @@
         <v>1109</v>
       </c>
       <c r="C562" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D562" s="1">
         <v>-1</v>
@@ -24091,7 +24126,7 @@
         <v>1110</v>
       </c>
       <c r="C564" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D564" s="1">
         <v>-1</v>
@@ -24121,7 +24156,7 @@
         <v>1111</v>
       </c>
       <c r="C565" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D565" s="1">
         <v>-1</v>
@@ -24151,7 +24186,7 @@
         <v>1112</v>
       </c>
       <c r="C566" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D566" s="1">
         <v>-1</v>
@@ -24181,7 +24216,7 @@
         <v>1113</v>
       </c>
       <c r="C567" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D567" s="1">
         <v>-1</v>
@@ -24211,7 +24246,7 @@
         <v>1114</v>
       </c>
       <c r="C568" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D568" s="1">
         <v>-1</v>
@@ -24241,7 +24276,7 @@
         <v>1115</v>
       </c>
       <c r="C569" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D569" s="1">
         <v>-1</v>
@@ -24271,7 +24306,7 @@
         <v>1116</v>
       </c>
       <c r="C570" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D570" s="1">
         <v>-1</v>
@@ -24301,7 +24336,7 @@
         <v>1117</v>
       </c>
       <c r="C571" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D571" s="1">
         <v>-1</v>
@@ -24331,7 +24366,7 @@
         <v>1130</v>
       </c>
       <c r="C572" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D572" s="1">
         <v>-1</v>
@@ -24361,7 +24396,7 @@
         <v>1131</v>
       </c>
       <c r="C573" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D573" s="1">
         <v>-1</v>
@@ -24391,7 +24426,7 @@
         <v>1132</v>
       </c>
       <c r="C574" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D574" s="1">
         <v>-1</v>
@@ -24421,7 +24456,7 @@
         <v>1133</v>
       </c>
       <c r="C575" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D575" s="1">
         <v>-1</v>
@@ -25078,7 +25113,7 @@
         <v>368</v>
       </c>
       <c r="C593" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D593" s="1">
         <v>0</v>
@@ -25108,7 +25143,7 @@
         <v>369</v>
       </c>
       <c r="C594" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D594" s="1">
         <v>0</v>
@@ -25138,7 +25173,7 @@
         <v>370</v>
       </c>
       <c r="C595" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D595" s="1">
         <v>0</v>
@@ -25168,7 +25203,7 @@
         <v>371</v>
       </c>
       <c r="C596" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D596" s="1">
         <v>0</v>
@@ -25198,7 +25233,7 @@
         <v>372</v>
       </c>
       <c r="C597" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D597" s="1">
         <v>0</v>
@@ -25228,7 +25263,7 @@
         <v>373</v>
       </c>
       <c r="C598" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D598" s="1">
         <v>0</v>
@@ -25258,7 +25293,7 @@
         <v>374</v>
       </c>
       <c r="C599" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D599" s="1">
         <v>0</v>
@@ -25288,7 +25323,7 @@
         <v>375</v>
       </c>
       <c r="C600" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D600" s="1">
         <v>0</v>
@@ -25318,7 +25353,7 @@
         <v>376</v>
       </c>
       <c r="C601" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D601" s="1">
         <v>0</v>
@@ -25348,7 +25383,7 @@
         <v>377</v>
       </c>
       <c r="C602" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D602" s="1">
         <v>0</v>
@@ -25378,7 +25413,7 @@
         <v>378</v>
       </c>
       <c r="C603" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D603" s="1">
         <v>0</v>
@@ -25408,7 +25443,7 @@
         <v>379</v>
       </c>
       <c r="C604" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D604" s="1">
         <v>0</v>
@@ -25438,7 +25473,7 @@
         <v>380</v>
       </c>
       <c r="C605" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D605" s="1">
         <v>0</v>
@@ -25468,7 +25503,7 @@
         <v>381</v>
       </c>
       <c r="C606" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D606" s="1">
         <v>0</v>
@@ -25498,7 +25533,7 @@
         <v>382</v>
       </c>
       <c r="C607" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D607" s="1">
         <v>0</v>
@@ -25528,7 +25563,7 @@
         <v>383</v>
       </c>
       <c r="C608" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D608" s="1">
         <v>0</v>
@@ -25588,7 +25623,7 @@
         <v>385</v>
       </c>
       <c r="C610" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D610" s="1">
         <v>0</v>
@@ -25618,7 +25653,7 @@
         <v>386</v>
       </c>
       <c r="C611" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D611" s="1">
         <v>0</v>
@@ -25648,7 +25683,7 @@
         <v>387</v>
       </c>
       <c r="C612" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D612" s="1">
         <v>0</v>
@@ -25678,7 +25713,7 @@
         <v>388</v>
       </c>
       <c r="C613" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D613" s="1">
         <v>0</v>
@@ -25708,7 +25743,7 @@
         <v>389</v>
       </c>
       <c r="C614" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D614" s="1">
         <v>0</v>
@@ -25738,7 +25773,7 @@
         <v>390</v>
       </c>
       <c r="C615" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D615" s="1">
         <v>0</v>
@@ -25768,7 +25803,7 @@
         <v>391</v>
       </c>
       <c r="C616" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D616" s="1">
         <v>0</v>
@@ -25798,7 +25833,7 @@
         <v>392</v>
       </c>
       <c r="C617" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D617" s="1">
         <v>0</v>
@@ -25828,7 +25863,7 @@
         <v>393</v>
       </c>
       <c r="C618" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D618" s="1">
         <v>0</v>
@@ -25858,7 +25893,7 @@
         <v>394</v>
       </c>
       <c r="C619" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D619" s="1">
         <v>0</v>
@@ -25888,7 +25923,7 @@
         <v>395</v>
       </c>
       <c r="C620" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D620" s="1">
         <v>0</v>
@@ -25918,7 +25953,7 @@
         <v>396</v>
       </c>
       <c r="C621" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D621" s="1">
         <v>0</v>
@@ -26525,7 +26560,7 @@
         <v>1274</v>
       </c>
       <c r="C640" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D640" s="1">
         <v>-1</v>
@@ -26555,7 +26590,7 @@
         <v>1277</v>
       </c>
       <c r="C641" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D641" s="1">
         <v>-1</v>
@@ -26585,7 +26620,7 @@
         <v>1251</v>
       </c>
       <c r="C642" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D642" s="1">
         <v>-1</v>
@@ -27287,7 +27322,7 @@
         <v>432</v>
       </c>
       <c r="C663" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D663" s="1">
         <v>-1</v>
@@ -27320,7 +27355,7 @@
         <v>433</v>
       </c>
       <c r="C664" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D664" s="1">
         <v>-1</v>
@@ -27353,7 +27388,7 @@
         <v>434</v>
       </c>
       <c r="C665" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D665" s="1">
         <v>-1</v>
@@ -27386,10 +27421,10 @@
         <v>435</v>
       </c>
       <c r="C666" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D666" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E666" s="1">
         <v>0</v>
@@ -27419,7 +27454,7 @@
         <v>436</v>
       </c>
       <c r="C667" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D667" s="1">
         <v>-1</v>
@@ -27452,7 +27487,7 @@
         <v>437</v>
       </c>
       <c r="C668" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D668" s="1">
         <v>-1</v>
@@ -27485,7 +27520,7 @@
         <v>438</v>
       </c>
       <c r="C669" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D669" s="1">
         <v>-1</v>
@@ -27518,10 +27553,10 @@
         <v>439</v>
       </c>
       <c r="C670" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D670" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E670" s="1">
         <v>0</v>
@@ -27551,7 +27586,7 @@
         <v>440</v>
       </c>
       <c r="C671" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D671" s="1">
         <v>-1</v>
@@ -27584,7 +27619,7 @@
         <v>441</v>
       </c>
       <c r="C672" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D672" s="1">
         <v>-1</v>
@@ -27617,10 +27652,10 @@
         <v>442</v>
       </c>
       <c r="C673" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D673" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E673" s="1">
         <v>0</v>
@@ -27650,7 +27685,7 @@
         <v>443</v>
       </c>
       <c r="C674" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D674" s="1">
         <v>-1</v>
@@ -27683,7 +27718,7 @@
         <v>444</v>
       </c>
       <c r="C675" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D675" s="1">
         <v>-1</v>
@@ -27716,10 +27751,10 @@
         <v>445</v>
       </c>
       <c r="C676" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D676" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E676" s="1">
         <v>0</v>
@@ -27749,7 +27784,7 @@
         <v>446</v>
       </c>
       <c r="C677" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D677" s="1">
         <v>-1</v>
@@ -27782,7 +27817,7 @@
         <v>447</v>
       </c>
       <c r="C678" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D678" s="1">
         <v>-1</v>
@@ -27815,10 +27850,10 @@
         <v>448</v>
       </c>
       <c r="C679" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D679" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E679" s="1">
         <v>0</v>
@@ -27848,7 +27883,7 @@
         <v>449</v>
       </c>
       <c r="C680" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D680" s="1">
         <v>-1</v>
@@ -27881,7 +27916,7 @@
         <v>450</v>
       </c>
       <c r="C681" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D681" s="1">
         <v>-1</v>
@@ -28124,7 +28159,7 @@
         <v>458</v>
       </c>
       <c r="C689" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D689" s="1">
         <v>-1</v>
@@ -28184,7 +28219,7 @@
         <v>460</v>
       </c>
       <c r="C691" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D691" s="1">
         <v>-1</v>
@@ -28214,7 +28249,7 @@
         <v>461</v>
       </c>
       <c r="C692" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D692" s="1">
         <v>-1</v>
@@ -28244,7 +28279,7 @@
         <v>462</v>
       </c>
       <c r="C693" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D693" s="1">
         <v>-1</v>
@@ -28304,7 +28339,7 @@
         <v>464</v>
       </c>
       <c r="C695" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D695" s="1">
         <v>-1</v>
@@ -28334,7 +28369,7 @@
         <v>465</v>
       </c>
       <c r="C696" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D696" s="1">
         <v>-1</v>
@@ -28394,7 +28429,7 @@
         <v>467</v>
       </c>
       <c r="C698" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D698" s="1">
         <v>-1</v>
@@ -28454,7 +28489,7 @@
         <v>469</v>
       </c>
       <c r="C700" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D700" s="1">
         <v>-1</v>
@@ -28484,7 +28519,7 @@
         <v>470</v>
       </c>
       <c r="C701" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D701" s="1">
         <v>-1</v>
@@ -28514,7 +28549,7 @@
         <v>471</v>
       </c>
       <c r="C702" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D702" s="1">
         <v>-1</v>
@@ -28574,7 +28609,7 @@
         <v>473</v>
       </c>
       <c r="C704" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D704" s="1">
         <v>-1</v>
@@ -28634,7 +28669,7 @@
         <v>475</v>
       </c>
       <c r="C706" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D706" s="1">
         <v>-1</v>
@@ -28664,7 +28699,7 @@
         <v>476</v>
       </c>
       <c r="C707" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D707" s="1">
         <v>-1</v>
@@ -29035,8 +29070,8 @@
       <c r="B718" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C718">
-        <v>1</v>
+      <c r="C718" s="1">
+        <v>-1</v>
       </c>
       <c r="D718" s="1">
         <v>0</v>
@@ -29065,8 +29100,8 @@
       <c r="B719" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C719">
-        <v>1</v>
+      <c r="C719" s="1">
+        <v>-1</v>
       </c>
       <c r="D719" s="1">
         <v>0</v>
@@ -29095,8 +29130,8 @@
       <c r="B720" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C720">
-        <v>1</v>
+      <c r="C720" s="1">
+        <v>-1</v>
       </c>
       <c r="D720" s="1">
         <v>0</v>
@@ -29125,8 +29160,8 @@
       <c r="B721" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C721">
-        <v>1</v>
+      <c r="C721" s="1">
+        <v>-1</v>
       </c>
       <c r="D721" s="1">
         <v>0</v>
@@ -29155,8 +29190,8 @@
       <c r="B722" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C722">
-        <v>1</v>
+      <c r="C722" s="1">
+        <v>-1</v>
       </c>
       <c r="D722" s="1">
         <v>0</v>
@@ -29185,8 +29220,8 @@
       <c r="B723" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C723">
-        <v>1</v>
+      <c r="C723" s="1">
+        <v>-1</v>
       </c>
       <c r="D723" s="1">
         <v>0</v>
@@ -29215,8 +29250,8 @@
       <c r="B724" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C724">
-        <v>1</v>
+      <c r="C724" s="1">
+        <v>-1</v>
       </c>
       <c r="D724" s="1">
         <v>0</v>
@@ -29245,8 +29280,8 @@
       <c r="B725" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C725">
-        <v>1</v>
+      <c r="C725" s="1">
+        <v>-1</v>
       </c>
       <c r="D725" s="1">
         <v>0</v>
@@ -29275,8 +29310,8 @@
       <c r="B726" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C726">
-        <v>1</v>
+      <c r="C726" s="1">
+        <v>-1</v>
       </c>
       <c r="D726" s="1">
         <v>0</v>
@@ -29305,8 +29340,8 @@
       <c r="B727" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C727">
-        <v>1</v>
+      <c r="C727" s="1">
+        <v>-1</v>
       </c>
       <c r="D727" s="1">
         <v>0</v>
@@ -29335,8 +29370,8 @@
       <c r="B728" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C728">
-        <v>1</v>
+      <c r="C728" s="1">
+        <v>-1</v>
       </c>
       <c r="D728" s="1">
         <v>0</v>
@@ -29365,8 +29400,8 @@
       <c r="B729" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C729">
-        <v>1</v>
+      <c r="C729" s="1">
+        <v>-1</v>
       </c>
       <c r="D729" s="1">
         <v>0</v>
@@ -29395,8 +29430,8 @@
       <c r="B730" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C730">
-        <v>1</v>
+      <c r="C730" s="1">
+        <v>-1</v>
       </c>
       <c r="D730" s="1">
         <v>0</v>
@@ -29425,8 +29460,8 @@
       <c r="B731" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C731">
-        <v>1</v>
+      <c r="C731" s="1">
+        <v>-1</v>
       </c>
       <c r="D731" s="1">
         <v>0</v>
@@ -32384,7 +32419,7 @@
         <v>5</v>
       </c>
       <c r="C826" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D826" s="1">
         <v>0</v>
@@ -32414,7 +32449,7 @@
         <v>6</v>
       </c>
       <c r="C827" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D827" s="1">
         <v>0</v>
@@ -32444,7 +32479,7 @@
         <v>7</v>
       </c>
       <c r="C828" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D828" s="1">
         <v>0</v>
@@ -33086,7 +33121,7 @@
         <v>84</v>
       </c>
       <c r="C847" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D847" s="1">
         <v>0</v>
@@ -33116,7 +33151,7 @@
         <v>85</v>
       </c>
       <c r="C848" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D848" s="1">
         <v>0</v>
@@ -33146,7 +33181,7 @@
         <v>86</v>
       </c>
       <c r="C849" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D849" s="1">
         <v>0</v>
@@ -33176,7 +33211,7 @@
         <v>87</v>
       </c>
       <c r="C850" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D850" s="1">
         <v>0</v>
@@ -33206,7 +33241,7 @@
         <v>88</v>
       </c>
       <c r="C851" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D851" s="1">
         <v>0</v>
@@ -33236,7 +33271,7 @@
         <v>89</v>
       </c>
       <c r="C852" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D852" s="1">
         <v>0</v>
@@ -33266,7 +33301,7 @@
         <v>90</v>
       </c>
       <c r="C853" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D853" s="1">
         <v>0</v>
@@ -33296,7 +33331,7 @@
         <v>91</v>
       </c>
       <c r="C854" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D854" s="1">
         <v>0</v>
@@ -34163,7 +34198,7 @@
         <v>96</v>
       </c>
       <c r="C879" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D879" s="1">
         <v>0</v>
@@ -34193,7 +34228,7 @@
         <v>97</v>
       </c>
       <c r="C880" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D880" s="1">
         <v>0</v>
@@ -34223,7 +34258,7 @@
         <v>98</v>
       </c>
       <c r="C881" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D881" s="1">
         <v>0</v>
@@ -34253,7 +34288,7 @@
         <v>99</v>
       </c>
       <c r="C882" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D882" s="1">
         <v>0</v>
@@ -34283,7 +34318,7 @@
         <v>100</v>
       </c>
       <c r="C883" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D883" s="1">
         <v>0</v>
@@ -34313,7 +34348,7 @@
         <v>101</v>
       </c>
       <c r="C884" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D884" s="1">
         <v>0</v>
@@ -34343,7 +34378,7 @@
         <v>102</v>
       </c>
       <c r="C885" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D885" s="1">
         <v>0</v>
@@ -34373,7 +34408,7 @@
         <v>103</v>
       </c>
       <c r="C886" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D886" s="1">
         <v>0</v>
@@ -34403,7 +34438,7 @@
         <v>104</v>
       </c>
       <c r="C887" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D887" s="1">
         <v>0</v>
@@ -34433,7 +34468,7 @@
         <v>105</v>
       </c>
       <c r="C888" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D888" s="1">
         <v>0</v>
@@ -34463,7 +34498,7 @@
         <v>106</v>
       </c>
       <c r="C889" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D889" s="1">
         <v>0</v>
@@ -34493,7 +34528,7 @@
         <v>107</v>
       </c>
       <c r="C890" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D890" s="1">
         <v>0</v>
@@ -34523,7 +34558,7 @@
         <v>108</v>
       </c>
       <c r="C891" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D891" s="1">
         <v>0</v>
@@ -34553,7 +34588,7 @@
         <v>109</v>
       </c>
       <c r="C892" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D892" s="1">
         <v>0</v>
@@ -34583,7 +34618,7 @@
         <v>110</v>
       </c>
       <c r="C893" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D893" s="1">
         <v>0</v>
@@ -34613,7 +34648,7 @@
         <v>111</v>
       </c>
       <c r="C894" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D894" s="1">
         <v>0</v>
@@ -34643,7 +34678,7 @@
         <v>112</v>
       </c>
       <c r="C895" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D895" s="1">
         <v>0</v>
@@ -34673,7 +34708,7 @@
         <v>113</v>
       </c>
       <c r="C896" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D896" s="1">
         <v>0</v>
@@ -34703,7 +34738,7 @@
         <v>114</v>
       </c>
       <c r="C897" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D897" s="1">
         <v>0</v>
@@ -34733,7 +34768,7 @@
         <v>115</v>
       </c>
       <c r="C898" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D898" s="1">
         <v>0</v>
@@ -34943,7 +34978,7 @@
         <v>736</v>
       </c>
       <c r="C905" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D905" s="1">
         <v>0</v>
@@ -34991,7 +35026,7 @@
         <v>737</v>
       </c>
       <c r="C906" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D906" s="1">
         <v>0</v>
@@ -35039,7 +35074,7 @@
         <v>738</v>
       </c>
       <c r="C907" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D907" s="1">
         <v>0</v>
@@ -35087,7 +35122,7 @@
         <v>739</v>
       </c>
       <c r="C908" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D908" s="1">
         <v>0</v>
@@ -35135,7 +35170,7 @@
         <v>740</v>
       </c>
       <c r="C909" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D909" s="1">
         <v>0</v>
@@ -35183,7 +35218,7 @@
         <v>741</v>
       </c>
       <c r="C910" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D910" s="1">
         <v>0</v>
@@ -35231,7 +35266,7 @@
         <v>742</v>
       </c>
       <c r="C911" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D911" s="1">
         <v>0</v>
@@ -35279,7 +35314,7 @@
         <v>743</v>
       </c>
       <c r="C912" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D912" s="1">
         <v>0</v>
@@ -35327,7 +35362,7 @@
         <v>744</v>
       </c>
       <c r="C913" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D913" s="1">
         <v>0</v>
@@ -35375,7 +35410,7 @@
         <v>745</v>
       </c>
       <c r="C914" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D914" s="1">
         <v>0</v>
@@ -35423,7 +35458,7 @@
         <v>746</v>
       </c>
       <c r="C915" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D915" s="1">
         <v>0</v>
@@ -35471,7 +35506,7 @@
         <v>747</v>
       </c>
       <c r="C916" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D916" s="1">
         <v>0</v>
@@ -35849,7 +35884,7 @@
         <v>748</v>
       </c>
       <c r="C928" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D928" s="1">
         <v>0</v>
@@ -35879,7 +35914,7 @@
         <v>749</v>
       </c>
       <c r="C929" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D929" s="1">
         <v>0</v>
@@ -35909,7 +35944,7 @@
         <v>750</v>
       </c>
       <c r="C930" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D930" s="1">
         <v>0</v>
@@ -35939,7 +35974,7 @@
         <v>751</v>
       </c>
       <c r="C931" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D931" s="1">
         <v>0</v>
@@ -35969,7 +36004,7 @@
         <v>752</v>
       </c>
       <c r="C932" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D932" s="1">
         <v>0</v>
@@ -36149,7 +36184,7 @@
         <v>596</v>
       </c>
       <c r="C938" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D938" s="1">
         <v>0</v>
@@ -36179,7 +36214,7 @@
         <v>597</v>
       </c>
       <c r="C939" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D939" s="1">
         <v>0</v>
@@ -36209,13 +36244,13 @@
         <v>598</v>
       </c>
       <c r="C940" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D940" s="1">
         <v>0</v>
       </c>
       <c r="E940" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F940" s="1" t="s">
         <v>1287</v>
@@ -36239,7 +36274,7 @@
         <v>599</v>
       </c>
       <c r="C941" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D941" s="1">
         <v>0</v>
@@ -36269,7 +36304,7 @@
         <v>600</v>
       </c>
       <c r="C942" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D942" s="1">
         <v>0</v>
@@ -36299,7 +36334,7 @@
         <v>601</v>
       </c>
       <c r="C943" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D943" s="1">
         <v>0</v>
@@ -36329,13 +36364,13 @@
         <v>602</v>
       </c>
       <c r="C944" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D944" s="1">
         <v>0</v>
       </c>
       <c r="E944" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F944" s="1" t="s">
         <v>1287</v>
@@ -36359,7 +36394,7 @@
         <v>603</v>
       </c>
       <c r="C945" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D945" s="1">
         <v>0</v>
@@ -36389,13 +36424,13 @@
         <v>604</v>
       </c>
       <c r="C946" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D946" s="1">
         <v>0</v>
       </c>
       <c r="E946" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F946" s="1" t="s">
         <v>1287</v>
@@ -36419,7 +36454,7 @@
         <v>605</v>
       </c>
       <c r="C947" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D947" s="1">
         <v>0</v>
@@ -36449,7 +36484,7 @@
         <v>606</v>
       </c>
       <c r="C948" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D948" s="1">
         <v>0</v>
@@ -36479,13 +36514,13 @@
         <v>607</v>
       </c>
       <c r="C949" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D949" s="1">
         <v>0</v>
       </c>
       <c r="E949" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F949" s="1" t="s">
         <v>1287</v>
@@ -36509,7 +36544,7 @@
         <v>608</v>
       </c>
       <c r="C950" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D950" s="1">
         <v>0</v>
@@ -36539,13 +36574,13 @@
         <v>609</v>
       </c>
       <c r="C951" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D951" s="1">
         <v>0</v>
       </c>
       <c r="E951" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F951" s="1" t="s">
         <v>1287</v>
@@ -36569,7 +36604,7 @@
         <v>610</v>
       </c>
       <c r="C952" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D952" s="1">
         <v>0</v>
@@ -36749,7 +36784,7 @@
         <v>975</v>
       </c>
       <c r="C958" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D958" s="1">
         <v>0</v>
@@ -36818,7 +36853,7 @@
         <v>976</v>
       </c>
       <c r="C960" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D960" s="1">
         <v>0</v>
@@ -36887,7 +36922,7 @@
         <v>977</v>
       </c>
       <c r="C962" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D962" s="1">
         <v>0</v>
@@ -36926,7 +36961,7 @@
         <v>978</v>
       </c>
       <c r="C963" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D963" s="1">
         <v>0</v>
@@ -36965,7 +37000,7 @@
         <v>979</v>
       </c>
       <c r="C964" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D964" s="1">
         <v>0</v>
@@ -37004,7 +37039,7 @@
         <v>980</v>
       </c>
       <c r="C965" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D965" s="1">
         <v>0</v>
@@ -37043,7 +37078,7 @@
         <v>981</v>
       </c>
       <c r="C966" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D966" s="1">
         <v>0</v>
@@ -37112,7 +37147,7 @@
         <v>982</v>
       </c>
       <c r="C968" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D968" s="1">
         <v>0</v>
@@ -37151,7 +37186,7 @@
         <v>983</v>
       </c>
       <c r="C969" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D969" s="1">
         <v>0</v>
@@ -37220,7 +37255,7 @@
         <v>984</v>
       </c>
       <c r="C971" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D971" s="1">
         <v>0</v>
@@ -37439,7 +37474,7 @@
         <v>954</v>
       </c>
       <c r="C978" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D978" s="1">
         <v>0</v>
@@ -37478,7 +37513,7 @@
         <v>955</v>
       </c>
       <c r="C979" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D979" s="1">
         <v>0</v>
@@ -37517,7 +37552,7 @@
         <v>957</v>
       </c>
       <c r="C980" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D980" s="1">
         <v>0</v>
@@ -37556,7 +37591,7 @@
         <v>959</v>
       </c>
       <c r="C981" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D981" s="1">
         <v>0</v>
@@ -37625,7 +37660,7 @@
         <v>961</v>
       </c>
       <c r="C983" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D983" s="1">
         <v>0</v>
@@ -37694,7 +37729,7 @@
         <v>964</v>
       </c>
       <c r="C985" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D985" s="1">
         <v>0</v>
@@ -37733,7 +37768,7 @@
         <v>965</v>
       </c>
       <c r="C986" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D986" s="1">
         <v>0</v>
@@ -37802,7 +37837,7 @@
         <v>967</v>
       </c>
       <c r="C988" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D988" s="1">
         <v>0</v>
@@ -37871,7 +37906,7 @@
         <v>969</v>
       </c>
       <c r="C990" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D990" s="1">
         <v>0</v>
@@ -37910,7 +37945,7 @@
         <v>971</v>
       </c>
       <c r="C991" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D991" s="1">
         <v>0</v>
@@ -38099,7 +38134,7 @@
         <v>936</v>
       </c>
       <c r="C997" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D997" s="1">
         <v>0</v>
@@ -38138,7 +38173,7 @@
         <v>937</v>
       </c>
       <c r="C998" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D998" s="1">
         <v>0</v>
@@ -38177,7 +38212,7 @@
         <v>938</v>
       </c>
       <c r="C999" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D999" s="1">
         <v>0</v>
@@ -38216,7 +38251,7 @@
         <v>939</v>
       </c>
       <c r="C1000" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1000" s="1">
         <v>0</v>
@@ -38255,7 +38290,7 @@
         <v>940</v>
       </c>
       <c r="C1001" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1001" s="1">
         <v>0</v>
@@ -38294,7 +38329,7 @@
         <v>941</v>
       </c>
       <c r="C1002" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1002" s="1">
         <v>0</v>
@@ -38333,7 +38368,7 @@
         <v>942</v>
       </c>
       <c r="C1003" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1003" s="1">
         <v>0</v>
@@ -38372,7 +38407,7 @@
         <v>943</v>
       </c>
       <c r="C1004" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1004" s="1">
         <v>0</v>
@@ -38411,7 +38446,7 @@
         <v>944</v>
       </c>
       <c r="C1005" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1005" s="1">
         <v>0</v>
@@ -38450,7 +38485,7 @@
         <v>985</v>
       </c>
       <c r="C1006" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1006" s="1">
         <v>0</v>
@@ -38489,7 +38524,7 @@
         <v>945</v>
       </c>
       <c r="C1007" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1007" s="1">
         <v>0</v>
@@ -38528,7 +38563,7 @@
         <v>946</v>
       </c>
       <c r="C1008" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1008" s="1">
         <v>0</v>
@@ -38567,7 +38602,7 @@
         <v>947</v>
       </c>
       <c r="C1009" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1009" s="1">
         <v>0</v>
@@ -38606,7 +38641,7 @@
         <v>948</v>
       </c>
       <c r="C1010" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1010" s="1">
         <v>0</v>
@@ -38645,7 +38680,7 @@
         <v>949</v>
       </c>
       <c r="C1011" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1011" s="1">
         <v>0</v>
@@ -38684,7 +38719,7 @@
         <v>950</v>
       </c>
       <c r="C1012" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1012" s="1">
         <v>0</v>
@@ -38723,7 +38758,7 @@
         <v>951</v>
       </c>
       <c r="C1013" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1013" s="1">
         <v>0</v>
@@ -38762,7 +38797,7 @@
         <v>952</v>
       </c>
       <c r="C1014" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1014" s="1">
         <v>0</v>
@@ -38801,7 +38836,7 @@
         <v>953</v>
       </c>
       <c r="C1015" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1015" s="1">
         <v>0</v>
@@ -38840,7 +38875,7 @@
         <v>956</v>
       </c>
       <c r="C1016" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1016" s="1">
         <v>0</v>
@@ -38879,7 +38914,7 @@
         <v>958</v>
       </c>
       <c r="C1017" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1017" s="1">
         <v>0</v>
@@ -38918,7 +38953,7 @@
         <v>960</v>
       </c>
       <c r="C1018" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1018" s="1">
         <v>0</v>
@@ -38957,7 +38992,7 @@
         <v>962</v>
       </c>
       <c r="C1019" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1019" s="1">
         <v>0</v>
@@ -38996,7 +39031,7 @@
         <v>963</v>
       </c>
       <c r="C1020" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1020" s="1">
         <v>0</v>
@@ -39035,7 +39070,7 @@
         <v>966</v>
       </c>
       <c r="C1021" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1021" s="1">
         <v>0</v>
@@ -39074,7 +39109,7 @@
         <v>968</v>
       </c>
       <c r="C1022" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1022" s="1">
         <v>0</v>
@@ -39113,7 +39148,7 @@
         <v>970</v>
       </c>
       <c r="C1023" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1023" s="1">
         <v>0</v>
@@ -39152,7 +39187,7 @@
         <v>972</v>
       </c>
       <c r="C1024" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1024" s="1">
         <v>0</v>
@@ -39191,7 +39226,7 @@
         <v>973</v>
       </c>
       <c r="C1025" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1025" s="1">
         <v>0</v>
@@ -39230,7 +39265,7 @@
         <v>974</v>
       </c>
       <c r="C1026" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1026" s="1">
         <v>0</v>
@@ -39269,7 +39304,7 @@
         <v>927</v>
       </c>
       <c r="C1027" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1027" s="1">
         <v>0</v>
@@ -39317,7 +39352,7 @@
         <v>928</v>
       </c>
       <c r="C1028" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1028" s="1">
         <v>0</v>
@@ -39365,7 +39400,7 @@
         <v>929</v>
       </c>
       <c r="C1029" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1029" s="1">
         <v>0</v>
@@ -39413,7 +39448,7 @@
         <v>930</v>
       </c>
       <c r="C1030" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1030" s="1">
         <v>0</v>
@@ -39461,7 +39496,7 @@
         <v>931</v>
       </c>
       <c r="C1031" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1031" s="1">
         <v>0</v>
@@ -39509,7 +39544,7 @@
         <v>932</v>
       </c>
       <c r="C1032" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1032" s="1">
         <v>0</v>
@@ -39557,7 +39592,7 @@
         <v>933</v>
       </c>
       <c r="C1033" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1033" s="1">
         <v>0</v>
@@ -39605,7 +39640,7 @@
         <v>934</v>
       </c>
       <c r="C1034" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1034" s="1">
         <v>0</v>
@@ -39653,7 +39688,7 @@
         <v>935</v>
       </c>
       <c r="C1035" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1035" s="1">
         <v>0</v>
@@ -40433,7 +40468,7 @@
         <v>995</v>
       </c>
       <c r="C1055" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1055" s="1">
         <v>0</v>
@@ -40472,7 +40507,7 @@
         <v>996</v>
       </c>
       <c r="C1056" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1056" s="1">
         <v>0</v>
@@ -40511,7 +40546,7 @@
         <v>997</v>
       </c>
       <c r="C1057" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1057" s="1">
         <v>0</v>
@@ -40550,7 +40585,7 @@
         <v>998</v>
       </c>
       <c r="C1058" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1058" s="1">
         <v>0</v>
@@ -40589,7 +40624,7 @@
         <v>999</v>
       </c>
       <c r="C1059" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1059" s="1">
         <v>0</v>
@@ -40628,7 +40663,7 @@
         <v>1000</v>
       </c>
       <c r="C1060" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1060" s="1">
         <v>0</v>
@@ -40667,7 +40702,7 @@
         <v>1001</v>
       </c>
       <c r="C1061" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1061" s="1">
         <v>0</v>
@@ -40706,7 +40741,7 @@
         <v>1002</v>
       </c>
       <c r="C1062" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1062" s="1">
         <v>0</v>
@@ -40745,7 +40780,7 @@
         <v>1003</v>
       </c>
       <c r="C1063" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1063" s="1">
         <v>0</v>
@@ -40784,7 +40819,7 @@
         <v>1004</v>
       </c>
       <c r="C1064" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1064" s="1">
         <v>0</v>
@@ -40823,7 +40858,7 @@
         <v>1005</v>
       </c>
       <c r="C1065" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1065" s="1">
         <v>0</v>
@@ -40862,7 +40897,7 @@
         <v>1006</v>
       </c>
       <c r="C1066" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1066" s="1">
         <v>0</v>
@@ -40901,7 +40936,7 @@
         <v>1007</v>
       </c>
       <c r="C1067" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1067" s="1">
         <v>0</v>
@@ -40940,7 +40975,7 @@
         <v>1008</v>
       </c>
       <c r="C1068" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1068" s="1">
         <v>0</v>
@@ -40979,7 +41014,7 @@
         <v>1009</v>
       </c>
       <c r="C1069" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1069" s="1">
         <v>0</v>
@@ -41018,7 +41053,7 @@
         <v>1010</v>
       </c>
       <c r="C1070" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1070" s="1">
         <v>0</v>
@@ -41057,7 +41092,7 @@
         <v>1011</v>
       </c>
       <c r="C1071" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1071" s="1">
         <v>0</v>
@@ -41096,7 +41131,7 @@
         <v>1012</v>
       </c>
       <c r="C1072" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1072" s="1">
         <v>0</v>
@@ -41135,7 +41170,7 @@
         <v>1013</v>
       </c>
       <c r="C1073" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1073" s="1">
         <v>0</v>
@@ -41174,7 +41209,7 @@
         <v>1014</v>
       </c>
       <c r="C1074" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1074" s="1">
         <v>0</v>
@@ -41213,7 +41248,7 @@
         <v>1015</v>
       </c>
       <c r="C1075" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1075" s="1">
         <v>0</v>
@@ -41252,7 +41287,7 @@
         <v>1016</v>
       </c>
       <c r="C1076" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1076" s="1">
         <v>0</v>
@@ -41291,7 +41326,7 @@
         <v>1017</v>
       </c>
       <c r="C1077" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1077" s="1">
         <v>0</v>
@@ -41330,7 +41365,7 @@
         <v>1018</v>
       </c>
       <c r="C1078" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1078" s="1">
         <v>0</v>
@@ -41369,13 +41404,13 @@
         <v>707</v>
       </c>
       <c r="C1079" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1079" s="1">
         <v>0</v>
       </c>
       <c r="E1079" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F1079" s="1" t="s">
         <v>1284</v>
@@ -41399,13 +41434,13 @@
         <v>708</v>
       </c>
       <c r="C1080" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1080" s="1">
         <v>0</v>
       </c>
       <c r="E1080" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F1080" s="1" t="s">
         <v>1284</v>
@@ -41429,13 +41464,13 @@
         <v>709</v>
       </c>
       <c r="C1081" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1081" s="1">
         <v>0</v>
       </c>
       <c r="E1081" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F1081" s="1" t="s">
         <v>1284</v>
@@ -41579,7 +41614,7 @@
         <v>1077</v>
       </c>
       <c r="C1086" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1086" s="1">
         <v>0</v>
@@ -41609,7 +41644,7 @@
         <v>1078</v>
       </c>
       <c r="C1087" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1087" s="1">
         <v>0</v>
@@ -41639,7 +41674,7 @@
         <v>1079</v>
       </c>
       <c r="C1088" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1088" s="1">
         <v>0</v>
@@ -41669,7 +41704,7 @@
         <v>1155</v>
       </c>
       <c r="C1089" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1089" s="1">
         <v>0</v>
@@ -41699,7 +41734,7 @@
         <v>1156</v>
       </c>
       <c r="C1090" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1090" s="1">
         <v>0</v>
@@ -41729,7 +41764,7 @@
         <v>1157</v>
       </c>
       <c r="C1091" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1091" s="1">
         <v>0</v>
@@ -41759,7 +41794,7 @@
         <v>1158</v>
       </c>
       <c r="C1092" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1092" s="1">
         <v>0</v>
@@ -41789,7 +41824,7 @@
         <v>1159</v>
       </c>
       <c r="C1093" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1093" s="1">
         <v>0</v>
@@ -41819,7 +41854,7 @@
         <v>1160</v>
       </c>
       <c r="C1094" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1094" s="1">
         <v>0</v>
@@ -41849,7 +41884,7 @@
         <v>1161</v>
       </c>
       <c r="C1095" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1095" s="1">
         <v>0</v>
@@ -41879,7 +41914,7 @@
         <v>1162</v>
       </c>
       <c r="C1096" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1096" s="1">
         <v>0</v>
@@ -41909,7 +41944,7 @@
         <v>1163</v>
       </c>
       <c r="C1097" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1097" s="1">
         <v>0</v>
@@ -41939,7 +41974,7 @@
         <v>1164</v>
       </c>
       <c r="C1098" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1098" s="1">
         <v>0</v>
@@ -41969,7 +42004,7 @@
         <v>1041</v>
       </c>
       <c r="C1099" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1099" s="1">
         <v>0</v>
@@ -41999,7 +42034,7 @@
         <v>1042</v>
       </c>
       <c r="C1100" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1100" s="1">
         <v>0</v>
@@ -42029,7 +42064,7 @@
         <v>1043</v>
       </c>
       <c r="C1101" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1101" s="1">
         <v>0</v>
@@ -42059,7 +42094,7 @@
         <v>1044</v>
       </c>
       <c r="C1102" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1102" s="1">
         <v>0</v>
@@ -42089,7 +42124,7 @@
         <v>1045</v>
       </c>
       <c r="C1103" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1103" s="1">
         <v>0</v>
@@ -42119,7 +42154,7 @@
         <v>1046</v>
       </c>
       <c r="C1104" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1104" s="1">
         <v>0</v>
@@ -42149,7 +42184,7 @@
         <v>1047</v>
       </c>
       <c r="C1105" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1105" s="1">
         <v>0</v>
@@ -42179,7 +42214,7 @@
         <v>1048</v>
       </c>
       <c r="C1106" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1106" s="1">
         <v>0</v>
@@ -42209,7 +42244,7 @@
         <v>1049</v>
       </c>
       <c r="C1107" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1107" s="1">
         <v>0</v>
@@ -42239,7 +42274,7 @@
         <v>1050</v>
       </c>
       <c r="C1108" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1108" s="1">
         <v>0</v>
@@ -42269,7 +42304,7 @@
         <v>1051</v>
       </c>
       <c r="C1109" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1109" s="1">
         <v>0</v>
@@ -42299,7 +42334,7 @@
         <v>1052</v>
       </c>
       <c r="C1110" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1110" s="1">
         <v>0</v>
@@ -42329,7 +42364,7 @@
         <v>1053</v>
       </c>
       <c r="C1111" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1111" s="1">
         <v>0</v>
@@ -42359,7 +42394,7 @@
         <v>1054</v>
       </c>
       <c r="C1112" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1112" s="1">
         <v>0</v>
@@ -42389,7 +42424,7 @@
         <v>1055</v>
       </c>
       <c r="C1113" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1113" s="1">
         <v>0</v>
@@ -42419,7 +42454,7 @@
         <v>1056</v>
       </c>
       <c r="C1114" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1114" s="1">
         <v>0</v>
@@ -42449,7 +42484,7 @@
         <v>1057</v>
       </c>
       <c r="C1115" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1115" s="1">
         <v>0</v>
@@ -42479,7 +42514,7 @@
         <v>1058</v>
       </c>
       <c r="C1116" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1116" s="1">
         <v>0</v>
@@ -42509,7 +42544,7 @@
         <v>1059</v>
       </c>
       <c r="C1117" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1117" s="1">
         <v>0</v>
@@ -42539,7 +42574,7 @@
         <v>1060</v>
       </c>
       <c r="C1118" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1118" s="1">
         <v>0</v>
@@ -42569,7 +42604,7 @@
         <v>1061</v>
       </c>
       <c r="C1119" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1119" s="1">
         <v>0</v>
@@ -42599,7 +42634,7 @@
         <v>1063</v>
       </c>
       <c r="C1120" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1120" s="1">
         <v>0</v>
@@ -42629,7 +42664,7 @@
         <v>1065</v>
       </c>
       <c r="C1121" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1121" s="1">
         <v>0</v>
@@ -42659,7 +42694,7 @@
         <v>1067</v>
       </c>
       <c r="C1122" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1122" s="1">
         <v>0</v>
@@ -42689,7 +42724,7 @@
         <v>1074</v>
       </c>
       <c r="C1123" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1123" s="1">
         <v>0</v>
@@ -42719,7 +42754,7 @@
         <v>1076</v>
       </c>
       <c r="C1124" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1124" s="1">
         <v>0</v>
@@ -42749,7 +42784,7 @@
         <v>1165</v>
       </c>
       <c r="C1125" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1125" s="1">
         <v>0</v>
@@ -42779,7 +42814,7 @@
         <v>1166</v>
       </c>
       <c r="C1126" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1126" s="1">
         <v>0</v>
@@ -42809,7 +42844,7 @@
         <v>1167</v>
       </c>
       <c r="C1127" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1127" s="1">
         <v>0</v>
@@ -42839,7 +42874,7 @@
         <v>1168</v>
       </c>
       <c r="C1128" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1128" s="1">
         <v>0</v>
@@ -42869,7 +42904,7 @@
         <v>1169</v>
       </c>
       <c r="C1129" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1129" s="1">
         <v>0</v>
@@ -42899,7 +42934,7 @@
         <v>1170</v>
       </c>
       <c r="C1130" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1130" s="1">
         <v>0</v>
@@ -42929,7 +42964,7 @@
         <v>1171</v>
       </c>
       <c r="C1131" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1131" s="1">
         <v>0</v>
@@ -42959,7 +42994,7 @@
         <v>1172</v>
       </c>
       <c r="C1132" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1132" s="1">
         <v>0</v>
@@ -42989,7 +43024,7 @@
         <v>1173</v>
       </c>
       <c r="C1133" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1133" s="1">
         <v>0</v>
@@ -43019,7 +43054,7 @@
         <v>1174</v>
       </c>
       <c r="C1134" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1134" s="1">
         <v>0</v>
@@ -43049,7 +43084,7 @@
         <v>1175</v>
       </c>
       <c r="C1135" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1135" s="1">
         <v>0</v>
@@ -43079,7 +43114,7 @@
         <v>1176</v>
       </c>
       <c r="C1136" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1136" s="1">
         <v>0</v>
@@ -43109,7 +43144,7 @@
         <v>1177</v>
       </c>
       <c r="C1137" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1137" s="1">
         <v>0</v>
@@ -43139,7 +43174,7 @@
         <v>1178</v>
       </c>
       <c r="C1138" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1138" s="1">
         <v>0</v>
@@ -43169,7 +43204,7 @@
         <v>1179</v>
       </c>
       <c r="C1139" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1139" s="1">
         <v>0</v>
@@ -43199,7 +43234,7 @@
         <v>1180</v>
       </c>
       <c r="C1140" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1140" s="1">
         <v>0</v>
@@ -43229,7 +43264,7 @@
         <v>1181</v>
       </c>
       <c r="C1141" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1141" s="1">
         <v>0</v>
@@ -43259,7 +43294,7 @@
         <v>1182</v>
       </c>
       <c r="C1142" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1142" s="1">
         <v>0</v>
@@ -43289,7 +43324,7 @@
         <v>1183</v>
       </c>
       <c r="C1143" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1143" s="1">
         <v>0</v>
@@ -43319,7 +43354,7 @@
         <v>1184</v>
       </c>
       <c r="C1144" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1144" s="1">
         <v>0</v>
@@ -43349,7 +43384,7 @@
         <v>1194</v>
       </c>
       <c r="C1145" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1145" s="1">
         <v>0</v>
@@ -43379,7 +43414,7 @@
         <v>1195</v>
       </c>
       <c r="C1146" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1146" s="1">
         <v>0</v>
@@ -43409,7 +43444,7 @@
         <v>1196</v>
       </c>
       <c r="C1147" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1147" s="1">
         <v>0</v>
@@ -43439,7 +43474,7 @@
         <v>1197</v>
       </c>
       <c r="C1148" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1148" s="1">
         <v>0</v>
@@ -43469,7 +43504,7 @@
         <v>1198</v>
       </c>
       <c r="C1149" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1149" s="1">
         <v>0</v>
@@ -43499,7 +43534,7 @@
         <v>1199</v>
       </c>
       <c r="C1150" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1150" s="1">
         <v>0</v>
@@ -43529,7 +43564,7 @@
         <v>1200</v>
       </c>
       <c r="C1151" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1151" s="1">
         <v>0</v>
@@ -43559,7 +43594,7 @@
         <v>1201</v>
       </c>
       <c r="C1152" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1152" s="1">
         <v>0</v>
@@ -43589,7 +43624,7 @@
         <v>1202</v>
       </c>
       <c r="C1153" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1153" s="1">
         <v>0</v>
@@ -43619,7 +43654,7 @@
         <v>1203</v>
       </c>
       <c r="C1154" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1154" s="1">
         <v>0</v>
@@ -43679,7 +43714,7 @@
         <v>1205</v>
       </c>
       <c r="C1156" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1156" s="1">
         <v>0</v>
@@ -43709,7 +43744,7 @@
         <v>1206</v>
       </c>
       <c r="C1157" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1157" s="1">
         <v>0</v>
@@ -43739,7 +43774,7 @@
         <v>1207</v>
       </c>
       <c r="C1158" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1158" s="1">
         <v>0</v>
@@ -43769,7 +43804,7 @@
         <v>1208</v>
       </c>
       <c r="C1159" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1159" s="1">
         <v>0</v>
@@ -43799,7 +43834,7 @@
         <v>1185</v>
       </c>
       <c r="C1160" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1160" s="1">
         <v>0</v>
@@ -43829,7 +43864,7 @@
         <v>1186</v>
       </c>
       <c r="C1161" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1161" s="1">
         <v>0</v>
@@ -43859,7 +43894,7 @@
         <v>1187</v>
       </c>
       <c r="C1162" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1162" s="1">
         <v>0</v>
@@ -43889,7 +43924,7 @@
         <v>1188</v>
       </c>
       <c r="C1163" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1163" s="1">
         <v>0</v>
@@ -43919,7 +43954,7 @@
         <v>1189</v>
       </c>
       <c r="C1164" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1164" s="1">
         <v>0</v>
@@ -43949,7 +43984,7 @@
         <v>1190</v>
       </c>
       <c r="C1165" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1165" s="1">
         <v>0</v>
@@ -43979,7 +44014,7 @@
         <v>1191</v>
       </c>
       <c r="C1166" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1166" s="1">
         <v>0</v>
@@ -44009,7 +44044,7 @@
         <v>1192</v>
       </c>
       <c r="C1167" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1167" s="1">
         <v>0</v>
@@ -45151,7 +45186,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="C1:E1048576">
+  <conditionalFormatting sqref="C51:E1048576 C1:E49">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>

--- a/preregistration/varNames.xlsx
+++ b/preregistration/varNames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jannis/SynologyDrive/PhD/Phd Research [shared]/04 Migration Trajectories/migration-trajectories/preregistration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EB11DE-D9E1-E445-8860-BA8F635C590F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18757DC0-ED50-E644-A1A5-001D8BB20651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4966,8 +4966,8 @@
   <dimension ref="A1:W1191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C654" sqref="C654"/>
+      <pane ySplit="1" topLeftCell="A459" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E474" sqref="E474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25370,7 +25370,7 @@
         <v>1306</v>
       </c>
       <c r="E473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F473">
         <v>1</v>
